--- a/database/seeders/01_SeederWork.xlsx
+++ b/database/seeders/01_SeederWork.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\var\www\work\anime_library\database\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8E6EB9-EDE4-4F3C-A210-3A35434CE36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F6C7C8-B490-4720-97BD-62D158C78322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="anime_titles" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
-  <si>
-    <t>course_yardage_title_id</t>
-  </si>
-  <si>
-    <t>city_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>anime_titles</t>
     <phoneticPr fontId="3"/>
@@ -201,6 +195,10 @@
   </si>
   <si>
     <t>arc_order</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>note</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -625,8 +623,8 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -640,7 +638,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -649,19 +647,19 @@
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
@@ -669,12 +667,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
@@ -682,12 +682,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
@@ -695,12 +697,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
@@ -708,12 +712,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
@@ -721,12 +727,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="13.5" thickTop="1"/>
@@ -758,26 +766,26 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.5" thickTop="1"/>
@@ -795,7 +803,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -808,32 +816,32 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13.5" thickTop="1"/>
@@ -850,7 +858,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -865,7 +873,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" thickBot="1">
       <c r="A1" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -873,22 +881,22 @@
     </row>
     <row r="2" spans="1:6" ht="21" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.5" thickTop="1"/>

--- a/database/seeders/01_SeederWork.xlsx
+++ b/database/seeders/01_SeederWork.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\var\www\work\anime_library\database\seeders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\var\www\work\anime_library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F6C7C8-B490-4720-97BD-62D158C78322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD068FC8-2800-4442-A69D-D4D15055D1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="anime_titles" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="193">
   <si>
     <t>anime_titles</t>
     <phoneticPr fontId="3"/>
@@ -60,145 +60,624 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>暗殺教室</t>
-  </si>
-  <si>
-    <t>あんさつきょうしつ</t>
-  </si>
-  <si>
     <t>めじゃー</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>チ。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>地球の運動について</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
+    <t>series</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>俺だけレベルアップな件</t>
-  </si>
-  <si>
-    <t>おれだけれべるあっぷなけん</t>
-  </si>
-  <si>
-    <t>ちちきゅうのうんどうについて</t>
-  </si>
-  <si>
-    <t>君の名は。</t>
+    <t>anime_title_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>series_order</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>format_type</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>episodes</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>series_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>episode_no</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>episode_title</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>onair_date</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>duration_min</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>arcs</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>start_episode_no</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>end_episode_no</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>第1シリーズ</t>
     <rPh sb="0" eb="1">
-      <t>キミ</t>
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>第2シリーズ</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>第3シリーズ</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>第4シリーズ</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>第5シリーズ</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>第6シリーズ</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>劇場版MAJOR メジャー 友情の一球</t>
+    <rPh sb="0" eb="2">
+      <t>ゲキジョウ</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>ナ</t>
+      <t>バン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ユウジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キュウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>きみのなは</t>
+    <t>メジャー -メッセージ-</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>series</t>
+    <t>MAJOR ワールドシリーズ編 夢の瞬間へ</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>anime_title_id</t>
+    <t>吾郎の夢、おとさんの夢</t>
+  </si>
+  <si>
+    <t>二つの友情</t>
+  </si>
+  <si>
+    <t>おとさんなんてキライだ!</t>
+  </si>
+  <si>
+    <t>一日遅れの誕生日</t>
+  </si>
+  <si>
+    <t>メジャーの男</t>
+  </si>
+  <si>
+    <t>さよなら・・・・</t>
+  </si>
+  <si>
+    <t>本田吾郎、9歳!</t>
+  </si>
+  <si>
+    <t>チーム結成!</t>
+  </si>
+  <si>
+    <t>一人ぼっちのマウンド</t>
+  </si>
+  <si>
+    <t>雨の熱戦</t>
+  </si>
+  <si>
+    <t>おとさんのいたチーム</t>
+  </si>
+  <si>
+    <t>ギブソンからの招待状</t>
+  </si>
+  <si>
+    <t>夏だ、野球だ、合宿だ!</t>
+  </si>
+  <si>
+    <t>無謀な練習試合</t>
+  </si>
+  <si>
+    <t>監督の思い</t>
+  </si>
+  <si>
+    <t>ヤメタ!</t>
+  </si>
+  <si>
+    <t>大会スタート!</t>
+  </si>
+  <si>
+    <t>目指せ、初勝利!</t>
+  </si>
+  <si>
+    <t>かーさんの幸せ</t>
+  </si>
+  <si>
+    <t>吾郎降板!?</t>
+  </si>
+  <si>
+    <t>これが野球!</t>
+  </si>
+  <si>
+    <t>決戦前夜</t>
+  </si>
+  <si>
+    <t>負ける気ナシ!</t>
+  </si>
+  <si>
+    <t>追いつけ! 追い越せ!</t>
+  </si>
+  <si>
+    <t>みんなで一緒に</t>
+  </si>
+  <si>
+    <t>さよならは言わない</t>
+  </si>
+  <si>
+    <t>帰ってきた…</t>
+  </si>
+  <si>
+    <t>夢はひとつ!</t>
+  </si>
+  <si>
+    <t>野球部、始動!</t>
+  </si>
+  <si>
+    <t>ライバル再会</t>
+  </si>
+  <si>
+    <t>寿也の過去</t>
+  </si>
+  <si>
+    <t>スカウトの陰謀</t>
+  </si>
+  <si>
+    <t>強敵! 友ノ浦</t>
+  </si>
+  <si>
+    <t>何のために…</t>
+  </si>
+  <si>
+    <t>熱闘の果てに</t>
+  </si>
+  <si>
+    <t>新たなる決意</t>
+  </si>
+  <si>
+    <t>海堂への狭き門</t>
+  </si>
+  <si>
+    <t>海堂への切符</t>
+  </si>
+  <si>
+    <t>また・な…</t>
+  </si>
+  <si>
+    <t>海堂学園高校編</t>
+  </si>
+  <si>
+    <t>夢を見る島</t>
+  </si>
+  <si>
+    <t>ピッチャーの条件</t>
+  </si>
+  <si>
+    <t>天然野球小僧</t>
+  </si>
+  <si>
+    <t>つかの間の夏休み</t>
+  </si>
+  <si>
+    <t>不愉快な野球</t>
+  </si>
+  <si>
+    <t>特待生の実力</t>
+  </si>
+  <si>
+    <t>吾郎vsマニュアル野球</t>
+  </si>
+  <si>
+    <t>君と一緒に</t>
+  </si>
+  <si>
+    <t>海堂の秘密</t>
+  </si>
+  <si>
+    <t>江頭の思惑</t>
+  </si>
+  <si>
+    <t>一軍への挑戦</t>
+  </si>
+  <si>
+    <t>自分の足で</t>
+  </si>
+  <si>
+    <t>あばよ!</t>
+  </si>
+  <si>
+    <t>三船東中学校編</t>
+  </si>
+  <si>
+    <t>聖秀学院高校編</t>
+  </si>
+  <si>
+    <t>ゼロからのスタート</t>
+  </si>
+  <si>
+    <t>新しい仲間</t>
+  </si>
+  <si>
+    <t>父から子へ</t>
+  </si>
+  <si>
+    <t>無謀な賭け</t>
+  </si>
+  <si>
+    <t>俺たちのグラウンド</t>
+  </si>
+  <si>
+    <t>それぞれの選択</t>
+  </si>
+  <si>
+    <t>突然の訪問者</t>
+  </si>
+  <si>
+    <t>江頭の陰謀</t>
+  </si>
+  <si>
+    <t>エース不在</t>
+  </si>
+  <si>
+    <t>伝染する闘志</t>
+  </si>
+  <si>
+    <t>手負いのエース</t>
+  </si>
+  <si>
+    <t>三船戦開始!</t>
+  </si>
+  <si>
+    <t>白熱! 三船戦</t>
+  </si>
+  <si>
+    <t>意地vs意地</t>
+  </si>
+  <si>
+    <t>フルスイング!</t>
+  </si>
+  <si>
+    <t>意外な再会</t>
+  </si>
+  <si>
+    <t>投手戦!</t>
+  </si>
+  <si>
+    <t>ラストスパート!</t>
+  </si>
+  <si>
+    <t>王者への挑戦</t>
+  </si>
+  <si>
+    <t>隙なし! マニュアル野球</t>
+  </si>
+  <si>
+    <t>寿也の秘策</t>
+  </si>
+  <si>
+    <t>真っ向勝負</t>
+  </si>
+  <si>
+    <t>ギリギリの戦い</t>
+  </si>
+  <si>
+    <t>策謀の結末</t>
+  </si>
+  <si>
+    <t>傷だらけのエース</t>
+  </si>
+  <si>
+    <t>夢の舞台へ</t>
+  </si>
+  <si>
+    <t>マイナーリーグ編</t>
+  </si>
+  <si>
+    <t>野球の故郷（ふるさと）へ</t>
+  </si>
+  <si>
+    <t>トライアウト</t>
+  </si>
+  <si>
+    <t>やってやる!</t>
+  </si>
+  <si>
+    <t>これがメジャー!</t>
+  </si>
+  <si>
+    <t>世界への道しるべ</t>
+  </si>
+  <si>
+    <t>ゆるさねぇ!!</t>
+  </si>
+  <si>
+    <t>度胸満点!</t>
+  </si>
+  <si>
+    <t>デビュー!</t>
+  </si>
+  <si>
+    <t>挑戦者</t>
+  </si>
+  <si>
+    <t>無理じゃねえ</t>
+  </si>
+  <si>
+    <t>狙ってみるか</t>
+  </si>
+  <si>
+    <t>嘘つき!</t>
+  </si>
+  <si>
+    <t>バカな賭け</t>
+  </si>
+  <si>
+    <t>キーンの過去</t>
+  </si>
+  <si>
+    <t>ヒーロー</t>
+  </si>
+  <si>
+    <t>ムカつく!</t>
+  </si>
+  <si>
+    <t>目指すべきもの</t>
+  </si>
+  <si>
+    <t>アリスの夢 みんなの夢</t>
+  </si>
+  <si>
+    <t>ケジメ</t>
+  </si>
+  <si>
+    <t>出て行け!</t>
+  </si>
+  <si>
+    <t>波乱の幕開け</t>
+  </si>
+  <si>
+    <t>運命の1球</t>
+  </si>
+  <si>
+    <t>もう一つの決戦</t>
+  </si>
+  <si>
+    <t>偉大な男</t>
+  </si>
+  <si>
+    <t>本物の好敵手（ライバル）</t>
+  </si>
+  <si>
+    <t>誓い</t>
+  </si>
+  <si>
+    <t>W杯編</t>
+  </si>
+  <si>
+    <t>ふたたび</t>
+  </si>
+  <si>
+    <t>二人の温度差</t>
+  </si>
+  <si>
+    <t>代表集結!</t>
+  </si>
+  <si>
+    <t>試行錯誤</t>
+  </si>
+  <si>
+    <t>ヤングジャパン</t>
+  </si>
+  <si>
+    <t>無欲の直球（ストレート）</t>
+  </si>
+  <si>
+    <t>突然の通達</t>
+  </si>
+  <si>
+    <t>それぞれの思い</t>
+  </si>
+  <si>
+    <t>重圧と真価</t>
+  </si>
+  <si>
+    <t>磨かれた牙</t>
+  </si>
+  <si>
+    <t>男じゃねぇ!!</t>
+  </si>
+  <si>
+    <t>呪縛</t>
+  </si>
+  <si>
+    <t>日本の野球</t>
+  </si>
+  <si>
+    <t>大丈夫!</t>
+  </si>
+  <si>
+    <t>アグレッシブ・ベースボール</t>
+  </si>
+  <si>
+    <t>それぞれの覚悟</t>
+  </si>
+  <si>
+    <t>アメリカの誇り</t>
+  </si>
+  <si>
+    <t>約束の場所へ</t>
+  </si>
+  <si>
+    <t>ピッチングの原点</t>
+  </si>
+  <si>
+    <t>誇りを胸に</t>
+  </si>
+  <si>
+    <t>自分自身のため</t>
+  </si>
+  <si>
+    <t>終わらない夢</t>
+  </si>
+  <si>
+    <t>父の背中</t>
+  </si>
+  <si>
+    <t>死闘の果て</t>
+  </si>
+  <si>
+    <t>明日への道</t>
+  </si>
+  <si>
+    <t>メジャーリーグ編</t>
+  </si>
+  <si>
+    <t>スーパールーキー</t>
+  </si>
+  <si>
+    <t>鮮烈デビュー!</t>
+  </si>
+  <si>
+    <t>逃げ場なきピンチ</t>
+  </si>
+  <si>
+    <t>悩めるサウスポー</t>
+  </si>
+  <si>
+    <t>治療の成果</t>
+  </si>
+  <si>
+    <t>プロの資質</t>
+  </si>
+  <si>
+    <t>ルーキーの苦悩</t>
+  </si>
+  <si>
+    <t>電撃復帰</t>
+  </si>
+  <si>
+    <t>復活のマウンド</t>
+  </si>
+  <si>
+    <t>それぞれの夏</t>
+  </si>
+  <si>
+    <t>託された夢</t>
+  </si>
+  <si>
+    <t>暗黙のルール</t>
+  </si>
+  <si>
+    <t>負の連鎖</t>
+  </si>
+  <si>
+    <t>エースの責任</t>
+  </si>
+  <si>
+    <t>ウイークポイント</t>
+  </si>
+  <si>
+    <t>断固たる意志</t>
+  </si>
+  <si>
+    <t>招かれざる客</t>
+  </si>
+  <si>
+    <t>らしくねぇ!</t>
+  </si>
+  <si>
+    <t>忍び寄る影</t>
+  </si>
+  <si>
+    <t>そこにある夢</t>
+  </si>
+  <si>
+    <t>諦めるな!</t>
+  </si>
+  <si>
+    <t>残されたチャンス</t>
+  </si>
+  <si>
+    <t>限界を超えて</t>
+  </si>
+  <si>
+    <t>栄光への執念</t>
+  </si>
+  <si>
+    <t>未来へ</t>
+  </si>
+  <si>
+    <t>保育園（幼稚園）編</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>series_order</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>format_type</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>episodes</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>series_id</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>episode_no</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>episode_title</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>onair_date</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>duration_min</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>is_movie</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>arcs</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>start_episode_no</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>end_episode_no</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>arc_order</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>note</t>
+    <t>リトルリーグ編</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -243,8 +722,8 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -256,7 +735,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -286,23 +765,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -310,12 +798,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -621,123 +1111,65 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.90625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="62.81640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="67.90625" customWidth="1"/>
+    <col min="3" max="3" width="62.81640625" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="13.5" thickTop="1"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="13.5" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -749,46 +1181,200 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47" style="4" customWidth="1"/>
+    <col min="4" max="5" width="17.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="4" t="s">
-        <v>15</v>
+      <c r="A1" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="5"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="13.5" thickTop="1"/>
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="5">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.5" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -800,51 +1386,2963 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:O160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="F159" sqref="F159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" style="6" customWidth="1"/>
-    <col min="4" max="7" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="36.54296875" customWidth="1"/>
+    <col min="5" max="6" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10">
+        <v>25</v>
+      </c>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10">
+        <v>25</v>
+      </c>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10">
+        <v>25</v>
+      </c>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10">
+        <v>25</v>
+      </c>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>6</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10">
+        <v>25</v>
+      </c>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10">
+        <v>25</v>
+      </c>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
+        <v>9</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>10</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10">
+        <v>25</v>
+      </c>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A13" s="10">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
+        <v>11</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10">
+        <v>12</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10">
+        <v>25</v>
+      </c>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A15" s="10">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
+        <v>13</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10">
+        <v>25</v>
+      </c>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A16" s="10">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10">
+        <v>14</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10">
+        <v>25</v>
+      </c>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A17" s="10">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
+        <v>15</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10">
+        <v>25</v>
+      </c>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10">
+        <v>16</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10">
+        <v>25</v>
+      </c>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A19" s="10">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
+        <v>17</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10">
+        <v>25</v>
+      </c>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A20" s="10">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10">
+        <v>18</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10">
+        <v>25</v>
+      </c>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A21" s="10">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10">
+        <v>19</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10">
+        <v>25</v>
+      </c>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A22" s="10">
         <v>20</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B22" s="10">
+        <v>1</v>
+      </c>
+      <c r="C22" s="10">
+        <v>20</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A23" s="10">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B23" s="10">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10">
+        <v>21</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10">
+        <v>25</v>
+      </c>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A24" s="10">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B24" s="10">
+        <v>1</v>
+      </c>
+      <c r="C24" s="10">
+        <v>22</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10">
+        <v>25</v>
+      </c>
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A25" s="10">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="B25" s="10">
+        <v>1</v>
+      </c>
+      <c r="C25" s="10">
+        <v>23</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10">
+        <v>25</v>
+      </c>
+      <c r="O25" s="9"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A26" s="10">
+        <v>24</v>
+      </c>
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="C26" s="10">
+        <v>24</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10">
+        <v>25</v>
+      </c>
+      <c r="O26" s="9"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A27" s="10">
+        <v>25</v>
+      </c>
+      <c r="B27" s="10">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10">
+        <v>25</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10">
+        <v>25</v>
+      </c>
+      <c r="O27" s="9"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A28" s="10">
         <v>26</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="13.5" thickTop="1"/>
+      <c r="B28" s="10">
+        <v>1</v>
+      </c>
+      <c r="C28" s="10">
+        <v>26</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10">
+        <v>25</v>
+      </c>
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A29" s="10">
+        <v>27</v>
+      </c>
+      <c r="B29" s="10">
+        <v>2</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10">
+        <v>25</v>
+      </c>
+      <c r="O29" s="9"/>
+    </row>
+    <row r="30" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A30" s="10">
+        <v>28</v>
+      </c>
+      <c r="B30" s="10">
+        <v>2</v>
+      </c>
+      <c r="C30" s="10">
+        <v>2</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10">
+        <v>25</v>
+      </c>
+      <c r="O30" s="9"/>
+    </row>
+    <row r="31" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A31" s="10">
+        <v>29</v>
+      </c>
+      <c r="B31" s="10">
+        <v>2</v>
+      </c>
+      <c r="C31" s="10">
+        <v>3</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10">
+        <v>25</v>
+      </c>
+      <c r="O31" s="9"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A32" s="10">
+        <v>30</v>
+      </c>
+      <c r="B32" s="10">
+        <v>2</v>
+      </c>
+      <c r="C32" s="10">
+        <v>4</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A33" s="10">
+        <v>31</v>
+      </c>
+      <c r="B33" s="10">
+        <v>2</v>
+      </c>
+      <c r="C33" s="10">
+        <v>5</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10">
+        <v>25</v>
+      </c>
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A34" s="10">
+        <v>32</v>
+      </c>
+      <c r="B34" s="10">
+        <v>2</v>
+      </c>
+      <c r="C34" s="10">
+        <v>6</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10">
+        <v>25</v>
+      </c>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A35" s="10">
+        <v>33</v>
+      </c>
+      <c r="B35" s="10">
+        <v>2</v>
+      </c>
+      <c r="C35" s="10">
+        <v>7</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10">
+        <v>25</v>
+      </c>
+      <c r="O35" s="9"/>
+    </row>
+    <row r="36" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A36" s="10">
+        <v>34</v>
+      </c>
+      <c r="B36" s="10">
+        <v>2</v>
+      </c>
+      <c r="C36" s="10">
+        <v>8</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10">
+        <v>25</v>
+      </c>
+      <c r="O36" s="9"/>
+    </row>
+    <row r="37" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A37" s="10">
+        <v>35</v>
+      </c>
+      <c r="B37" s="10">
+        <v>2</v>
+      </c>
+      <c r="C37" s="10">
+        <v>9</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10">
+        <v>25</v>
+      </c>
+      <c r="O37" s="9"/>
+    </row>
+    <row r="38" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A38" s="10">
+        <v>36</v>
+      </c>
+      <c r="B38" s="10">
+        <v>2</v>
+      </c>
+      <c r="C38" s="10">
+        <v>10</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10">
+        <v>25</v>
+      </c>
+      <c r="O38" s="9"/>
+    </row>
+    <row r="39" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A39" s="10">
+        <v>37</v>
+      </c>
+      <c r="B39" s="10">
+        <v>2</v>
+      </c>
+      <c r="C39" s="10">
+        <v>11</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10">
+        <v>25</v>
+      </c>
+      <c r="O39" s="9"/>
+    </row>
+    <row r="40" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A40" s="10">
+        <v>38</v>
+      </c>
+      <c r="B40" s="10">
+        <v>2</v>
+      </c>
+      <c r="C40" s="10">
+        <v>12</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10">
+        <v>25</v>
+      </c>
+      <c r="O40" s="9"/>
+    </row>
+    <row r="41" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A41" s="10">
+        <v>39</v>
+      </c>
+      <c r="B41" s="10">
+        <v>2</v>
+      </c>
+      <c r="C41" s="10">
+        <v>13</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10">
+        <v>25</v>
+      </c>
+      <c r="O41" s="9"/>
+    </row>
+    <row r="42" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A42" s="10">
+        <v>40</v>
+      </c>
+      <c r="B42" s="10">
+        <v>2</v>
+      </c>
+      <c r="C42" s="10">
+        <v>14</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10">
+        <v>25</v>
+      </c>
+      <c r="O42" s="9"/>
+    </row>
+    <row r="43" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A43" s="10">
+        <v>41</v>
+      </c>
+      <c r="B43" s="10">
+        <v>2</v>
+      </c>
+      <c r="C43" s="10">
+        <v>15</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10">
+        <v>25</v>
+      </c>
+      <c r="O43" s="9"/>
+    </row>
+    <row r="44" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A44" s="10">
+        <v>42</v>
+      </c>
+      <c r="B44" s="10">
+        <v>2</v>
+      </c>
+      <c r="C44" s="10">
+        <v>16</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10">
+        <v>25</v>
+      </c>
+      <c r="O44" s="9"/>
+    </row>
+    <row r="45" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A45" s="10">
+        <v>43</v>
+      </c>
+      <c r="B45" s="10">
+        <v>2</v>
+      </c>
+      <c r="C45" s="10">
+        <v>17</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10">
+        <v>25</v>
+      </c>
+      <c r="O45" s="9"/>
+    </row>
+    <row r="46" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A46" s="10">
+        <v>44</v>
+      </c>
+      <c r="B46" s="10">
+        <v>2</v>
+      </c>
+      <c r="C46" s="10">
+        <v>18</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10">
+        <v>25</v>
+      </c>
+      <c r="O46" s="9"/>
+    </row>
+    <row r="47" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A47" s="10">
+        <v>45</v>
+      </c>
+      <c r="B47" s="10">
+        <v>2</v>
+      </c>
+      <c r="C47" s="10">
+        <v>19</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10">
+        <v>25</v>
+      </c>
+      <c r="O47" s="9"/>
+    </row>
+    <row r="48" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A48" s="10">
+        <v>46</v>
+      </c>
+      <c r="B48" s="10">
+        <v>2</v>
+      </c>
+      <c r="C48" s="10">
+        <v>20</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10">
+        <v>25</v>
+      </c>
+      <c r="O48" s="9"/>
+    </row>
+    <row r="49" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A49" s="10">
+        <v>47</v>
+      </c>
+      <c r="B49" s="10">
+        <v>2</v>
+      </c>
+      <c r="C49" s="10">
+        <v>21</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10">
+        <v>25</v>
+      </c>
+      <c r="O49" s="9"/>
+    </row>
+    <row r="50" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A50" s="10">
+        <v>48</v>
+      </c>
+      <c r="B50" s="10">
+        <v>2</v>
+      </c>
+      <c r="C50" s="10">
+        <v>22</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10">
+        <v>25</v>
+      </c>
+      <c r="O50" s="9"/>
+    </row>
+    <row r="51" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A51" s="10">
+        <v>49</v>
+      </c>
+      <c r="B51" s="10">
+        <v>2</v>
+      </c>
+      <c r="C51" s="10">
+        <v>23</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10">
+        <v>25</v>
+      </c>
+      <c r="O51" s="9"/>
+    </row>
+    <row r="52" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A52" s="10">
+        <v>50</v>
+      </c>
+      <c r="B52" s="10">
+        <v>2</v>
+      </c>
+      <c r="C52" s="10">
+        <v>24</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10">
+        <v>25</v>
+      </c>
+      <c r="O52" s="9"/>
+    </row>
+    <row r="53" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A53" s="10">
+        <v>51</v>
+      </c>
+      <c r="B53" s="10">
+        <v>2</v>
+      </c>
+      <c r="C53" s="10">
+        <v>25</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10">
+        <v>25</v>
+      </c>
+      <c r="O53" s="9"/>
+    </row>
+    <row r="54" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A54" s="10">
+        <v>52</v>
+      </c>
+      <c r="B54" s="10">
+        <v>2</v>
+      </c>
+      <c r="C54" s="10">
+        <v>26</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10">
+        <v>25</v>
+      </c>
+      <c r="O54" s="9"/>
+    </row>
+    <row r="55" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A55" s="10">
+        <v>53</v>
+      </c>
+      <c r="B55" s="10">
+        <v>3</v>
+      </c>
+      <c r="C55" s="10">
+        <v>1</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A56" s="10">
+        <v>54</v>
+      </c>
+      <c r="B56" s="10">
+        <v>3</v>
+      </c>
+      <c r="C56" s="10">
+        <v>2</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A57" s="10">
+        <v>55</v>
+      </c>
+      <c r="B57" s="10">
+        <v>3</v>
+      </c>
+      <c r="C57" s="10">
+        <v>3</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10">
+        <v>25</v>
+      </c>
+      <c r="O57" s="9"/>
+    </row>
+    <row r="58" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A58" s="10">
+        <v>56</v>
+      </c>
+      <c r="B58" s="10">
+        <v>3</v>
+      </c>
+      <c r="C58" s="10">
+        <v>4</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10">
+        <v>25</v>
+      </c>
+      <c r="O58" s="9"/>
+    </row>
+    <row r="59" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A59" s="10">
+        <v>57</v>
+      </c>
+      <c r="B59" s="10">
+        <v>3</v>
+      </c>
+      <c r="C59" s="10">
+        <v>5</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10">
+        <v>25</v>
+      </c>
+      <c r="O59" s="9"/>
+    </row>
+    <row r="60" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A60" s="10">
+        <v>58</v>
+      </c>
+      <c r="B60" s="10">
+        <v>3</v>
+      </c>
+      <c r="C60" s="10">
+        <v>6</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10">
+        <v>25</v>
+      </c>
+      <c r="O60" s="9"/>
+    </row>
+    <row r="61" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A61" s="10">
+        <v>59</v>
+      </c>
+      <c r="B61" s="10">
+        <v>3</v>
+      </c>
+      <c r="C61" s="10">
+        <v>7</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10">
+        <v>25</v>
+      </c>
+      <c r="O61" s="9"/>
+    </row>
+    <row r="62" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A62" s="10">
+        <v>60</v>
+      </c>
+      <c r="B62" s="10">
+        <v>3</v>
+      </c>
+      <c r="C62" s="10">
+        <v>8</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10">
+        <v>25</v>
+      </c>
+      <c r="O62" s="9"/>
+    </row>
+    <row r="63" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A63" s="10">
+        <v>61</v>
+      </c>
+      <c r="B63" s="10">
+        <v>3</v>
+      </c>
+      <c r="C63" s="10">
+        <v>9</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10">
+        <v>25</v>
+      </c>
+      <c r="O63" s="9"/>
+    </row>
+    <row r="64" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A64" s="10">
+        <v>62</v>
+      </c>
+      <c r="B64" s="10">
+        <v>3</v>
+      </c>
+      <c r="C64" s="10">
+        <v>10</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10">
+        <v>25</v>
+      </c>
+      <c r="O64" s="9"/>
+    </row>
+    <row r="65" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A65" s="10">
+        <v>63</v>
+      </c>
+      <c r="B65" s="10">
+        <v>3</v>
+      </c>
+      <c r="C65" s="10">
+        <v>11</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10">
+        <v>25</v>
+      </c>
+      <c r="O65" s="9"/>
+    </row>
+    <row r="66" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A66" s="10">
+        <v>64</v>
+      </c>
+      <c r="B66" s="10">
+        <v>3</v>
+      </c>
+      <c r="C66" s="10">
+        <v>12</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10">
+        <v>25</v>
+      </c>
+      <c r="O66" s="9"/>
+    </row>
+    <row r="67" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A67" s="10">
+        <v>65</v>
+      </c>
+      <c r="B67" s="10">
+        <v>3</v>
+      </c>
+      <c r="C67" s="10">
+        <v>13</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10">
+        <v>25</v>
+      </c>
+      <c r="O67" s="9"/>
+    </row>
+    <row r="68" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A68" s="10">
+        <v>66</v>
+      </c>
+      <c r="B68" s="10">
+        <v>3</v>
+      </c>
+      <c r="C68" s="10">
+        <v>14</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10">
+        <v>25</v>
+      </c>
+      <c r="O68" s="9"/>
+    </row>
+    <row r="69" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A69" s="10">
+        <v>67</v>
+      </c>
+      <c r="B69" s="10">
+        <v>3</v>
+      </c>
+      <c r="C69" s="10">
+        <v>15</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10">
+        <v>25</v>
+      </c>
+      <c r="O69" s="9"/>
+    </row>
+    <row r="70" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A70" s="10">
+        <v>68</v>
+      </c>
+      <c r="B70" s="10">
+        <v>3</v>
+      </c>
+      <c r="C70" s="10">
+        <v>16</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10">
+        <v>25</v>
+      </c>
+      <c r="O70" s="9"/>
+    </row>
+    <row r="71" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A71" s="10">
+        <v>69</v>
+      </c>
+      <c r="B71" s="10">
+        <v>3</v>
+      </c>
+      <c r="C71" s="10">
+        <v>17</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10">
+        <v>25</v>
+      </c>
+      <c r="O71" s="9"/>
+    </row>
+    <row r="72" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A72" s="10">
+        <v>70</v>
+      </c>
+      <c r="B72" s="10">
+        <v>3</v>
+      </c>
+      <c r="C72" s="10">
+        <v>18</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10">
+        <v>25</v>
+      </c>
+      <c r="O72" s="9"/>
+    </row>
+    <row r="73" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A73" s="10">
+        <v>71</v>
+      </c>
+      <c r="B73" s="10">
+        <v>3</v>
+      </c>
+      <c r="C73" s="10">
+        <v>19</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10">
+        <v>25</v>
+      </c>
+      <c r="O73" s="9"/>
+    </row>
+    <row r="74" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A74" s="10">
+        <v>72</v>
+      </c>
+      <c r="B74" s="10">
+        <v>3</v>
+      </c>
+      <c r="C74" s="10">
+        <v>20</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10">
+        <v>25</v>
+      </c>
+      <c r="O74" s="9"/>
+    </row>
+    <row r="75" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A75" s="10">
+        <v>73</v>
+      </c>
+      <c r="B75" s="10">
+        <v>3</v>
+      </c>
+      <c r="C75" s="10">
+        <v>21</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10">
+        <v>25</v>
+      </c>
+      <c r="O75" s="9"/>
+    </row>
+    <row r="76" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A76" s="10">
+        <v>74</v>
+      </c>
+      <c r="B76" s="10">
+        <v>3</v>
+      </c>
+      <c r="C76" s="10">
+        <v>22</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10">
+        <v>25</v>
+      </c>
+      <c r="O76" s="9"/>
+    </row>
+    <row r="77" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A77" s="10">
+        <v>75</v>
+      </c>
+      <c r="B77" s="10">
+        <v>3</v>
+      </c>
+      <c r="C77" s="10">
+        <v>23</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10">
+        <v>25</v>
+      </c>
+      <c r="O77" s="9"/>
+    </row>
+    <row r="78" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A78" s="10">
+        <v>76</v>
+      </c>
+      <c r="B78" s="10">
+        <v>3</v>
+      </c>
+      <c r="C78" s="10">
+        <v>24</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10">
+        <v>25</v>
+      </c>
+      <c r="O78" s="9"/>
+    </row>
+    <row r="79" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A79" s="10">
+        <v>77</v>
+      </c>
+      <c r="B79" s="10">
+        <v>3</v>
+      </c>
+      <c r="C79" s="10">
+        <v>25</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10">
+        <v>25</v>
+      </c>
+      <c r="O79" s="9"/>
+    </row>
+    <row r="80" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A80" s="10">
+        <v>78</v>
+      </c>
+      <c r="B80" s="10">
+        <v>3</v>
+      </c>
+      <c r="C80" s="10">
+        <v>26</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10">
+        <v>25</v>
+      </c>
+      <c r="O80" s="9"/>
+    </row>
+    <row r="81" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A81" s="10">
+        <v>79</v>
+      </c>
+      <c r="B81" s="10">
+        <v>4</v>
+      </c>
+      <c r="C81" s="10">
+        <v>1</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10">
+        <v>24</v>
+      </c>
+      <c r="O81" s="9"/>
+    </row>
+    <row r="82" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A82" s="10">
+        <v>80</v>
+      </c>
+      <c r="B82" s="10">
+        <v>4</v>
+      </c>
+      <c r="C82" s="10">
+        <v>2</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A83" s="10">
+        <v>81</v>
+      </c>
+      <c r="B83" s="10">
+        <v>4</v>
+      </c>
+      <c r="C83" s="10">
+        <v>3</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10">
+        <v>24</v>
+      </c>
+      <c r="O83" s="9"/>
+    </row>
+    <row r="84" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A84" s="10">
+        <v>82</v>
+      </c>
+      <c r="B84" s="10">
+        <v>4</v>
+      </c>
+      <c r="C84" s="10">
+        <v>4</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10">
+        <v>24</v>
+      </c>
+      <c r="O84" s="9"/>
+    </row>
+    <row r="85" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A85" s="10">
+        <v>83</v>
+      </c>
+      <c r="B85" s="10">
+        <v>4</v>
+      </c>
+      <c r="C85" s="10">
+        <v>5</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A86" s="10">
+        <v>84</v>
+      </c>
+      <c r="B86" s="10">
+        <v>4</v>
+      </c>
+      <c r="C86" s="10">
+        <v>6</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10">
+        <v>24</v>
+      </c>
+      <c r="O86" s="9"/>
+    </row>
+    <row r="87" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A87" s="10">
+        <v>85</v>
+      </c>
+      <c r="B87" s="10">
+        <v>4</v>
+      </c>
+      <c r="C87" s="10">
+        <v>7</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A88" s="10">
+        <v>86</v>
+      </c>
+      <c r="B88" s="10">
+        <v>4</v>
+      </c>
+      <c r="C88" s="10">
+        <v>8</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A89" s="10">
+        <v>87</v>
+      </c>
+      <c r="B89" s="10">
+        <v>4</v>
+      </c>
+      <c r="C89" s="10">
+        <v>9</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10">
+        <v>24</v>
+      </c>
+      <c r="O89" s="9"/>
+    </row>
+    <row r="90" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A90" s="10">
+        <v>88</v>
+      </c>
+      <c r="B90" s="10">
+        <v>4</v>
+      </c>
+      <c r="C90" s="10">
+        <v>10</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A91" s="10">
+        <v>89</v>
+      </c>
+      <c r="B91" s="10">
+        <v>4</v>
+      </c>
+      <c r="C91" s="10">
+        <v>11</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10">
+        <v>24</v>
+      </c>
+      <c r="O91" s="9"/>
+    </row>
+    <row r="92" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A92" s="10">
+        <v>90</v>
+      </c>
+      <c r="B92" s="10">
+        <v>4</v>
+      </c>
+      <c r="C92" s="10">
+        <v>12</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A93" s="10">
+        <v>91</v>
+      </c>
+      <c r="B93" s="10">
+        <v>4</v>
+      </c>
+      <c r="C93" s="10">
+        <v>13</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10">
+        <v>24</v>
+      </c>
+      <c r="O93" s="9"/>
+    </row>
+    <row r="94" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A94" s="10">
+        <v>92</v>
+      </c>
+      <c r="B94" s="10">
+        <v>4</v>
+      </c>
+      <c r="C94" s="10">
+        <v>14</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A95" s="10">
+        <v>93</v>
+      </c>
+      <c r="B95" s="10">
+        <v>4</v>
+      </c>
+      <c r="C95" s="10">
+        <v>15</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10">
+        <v>24</v>
+      </c>
+      <c r="O95" s="9"/>
+    </row>
+    <row r="96" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A96" s="10">
+        <v>94</v>
+      </c>
+      <c r="B96" s="10">
+        <v>4</v>
+      </c>
+      <c r="C96" s="10">
+        <v>16</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A97" s="10">
+        <v>95</v>
+      </c>
+      <c r="B97" s="10">
+        <v>4</v>
+      </c>
+      <c r="C97" s="10">
+        <v>17</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10">
+        <v>24</v>
+      </c>
+      <c r="O97" s="9"/>
+    </row>
+    <row r="98" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A98" s="10">
+        <v>96</v>
+      </c>
+      <c r="B98" s="10">
+        <v>4</v>
+      </c>
+      <c r="C98" s="10">
+        <v>18</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A99" s="10">
+        <v>97</v>
+      </c>
+      <c r="B99" s="10">
+        <v>4</v>
+      </c>
+      <c r="C99" s="10">
+        <v>19</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10">
+        <v>24</v>
+      </c>
+      <c r="O99" s="9"/>
+    </row>
+    <row r="100" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A100" s="10">
+        <v>98</v>
+      </c>
+      <c r="B100" s="10">
+        <v>4</v>
+      </c>
+      <c r="C100" s="10">
+        <v>20</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A101" s="10">
+        <v>99</v>
+      </c>
+      <c r="B101" s="10">
+        <v>4</v>
+      </c>
+      <c r="C101" s="10">
+        <v>21</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10">
+        <v>24</v>
+      </c>
+      <c r="O101" s="9"/>
+    </row>
+    <row r="102" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A102" s="10">
+        <v>100</v>
+      </c>
+      <c r="B102" s="10">
+        <v>4</v>
+      </c>
+      <c r="C102" s="10">
+        <v>22</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A103" s="10">
+        <v>101</v>
+      </c>
+      <c r="B103" s="10">
+        <v>4</v>
+      </c>
+      <c r="C103" s="10">
+        <v>23</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A104" s="10">
+        <v>102</v>
+      </c>
+      <c r="B104" s="10">
+        <v>4</v>
+      </c>
+      <c r="C104" s="10">
+        <v>24</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10">
+        <v>24</v>
+      </c>
+      <c r="O104" s="9"/>
+    </row>
+    <row r="105" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A105" s="10">
+        <v>103</v>
+      </c>
+      <c r="B105" s="10">
+        <v>4</v>
+      </c>
+      <c r="C105" s="10">
+        <v>25</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A106" s="10">
+        <v>104</v>
+      </c>
+      <c r="B106" s="10">
+        <v>4</v>
+      </c>
+      <c r="C106" s="10">
+        <v>26</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10">
+        <v>24</v>
+      </c>
+      <c r="O106" s="9"/>
+    </row>
+    <row r="107" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A107" s="10">
+        <v>105</v>
+      </c>
+      <c r="B107" s="10">
+        <v>5</v>
+      </c>
+      <c r="C107" s="10">
+        <v>1</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A108" s="10">
+        <v>106</v>
+      </c>
+      <c r="B108" s="10">
+        <v>5</v>
+      </c>
+      <c r="C108" s="10">
+        <v>2</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10">
+        <v>24</v>
+      </c>
+      <c r="O108" s="9"/>
+    </row>
+    <row r="109" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A109" s="10">
+        <v>107</v>
+      </c>
+      <c r="B109" s="10">
+        <v>5</v>
+      </c>
+      <c r="C109" s="10">
+        <v>3</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10">
+        <v>24</v>
+      </c>
+      <c r="O109" s="9"/>
+    </row>
+    <row r="110" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A110" s="10">
+        <v>108</v>
+      </c>
+      <c r="B110" s="10">
+        <v>5</v>
+      </c>
+      <c r="C110" s="10">
+        <v>4</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A111" s="10">
+        <v>109</v>
+      </c>
+      <c r="B111" s="10">
+        <v>5</v>
+      </c>
+      <c r="C111" s="10">
+        <v>5</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10">
+        <v>24</v>
+      </c>
+      <c r="O111" s="9"/>
+    </row>
+    <row r="112" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A112" s="10">
+        <v>110</v>
+      </c>
+      <c r="B112" s="10">
+        <v>5</v>
+      </c>
+      <c r="C112" s="10">
+        <v>6</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A113" s="10">
+        <v>111</v>
+      </c>
+      <c r="B113" s="10">
+        <v>5</v>
+      </c>
+      <c r="C113" s="10">
+        <v>7</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10">
+        <v>24</v>
+      </c>
+      <c r="O113" s="9"/>
+    </row>
+    <row r="114" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A114" s="10">
+        <v>112</v>
+      </c>
+      <c r="B114" s="10">
+        <v>5</v>
+      </c>
+      <c r="C114" s="10">
+        <v>8</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A115" s="10">
+        <v>113</v>
+      </c>
+      <c r="B115" s="10">
+        <v>5</v>
+      </c>
+      <c r="C115" s="10">
+        <v>9</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A116" s="10">
+        <v>114</v>
+      </c>
+      <c r="B116" s="10">
+        <v>5</v>
+      </c>
+      <c r="C116" s="10">
+        <v>10</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A117" s="10">
+        <v>115</v>
+      </c>
+      <c r="B117" s="10">
+        <v>5</v>
+      </c>
+      <c r="C117" s="10">
+        <v>11</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A118" s="10">
+        <v>116</v>
+      </c>
+      <c r="B118" s="10">
+        <v>5</v>
+      </c>
+      <c r="C118" s="10">
+        <v>12</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A119" s="10">
+        <v>117</v>
+      </c>
+      <c r="B119" s="10">
+        <v>5</v>
+      </c>
+      <c r="C119" s="10">
+        <v>13</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A120" s="10">
+        <v>118</v>
+      </c>
+      <c r="B120" s="10">
+        <v>5</v>
+      </c>
+      <c r="C120" s="10">
+        <v>14</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A121" s="10">
+        <v>119</v>
+      </c>
+      <c r="B121" s="10">
+        <v>5</v>
+      </c>
+      <c r="C121" s="10">
+        <v>15</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A122" s="10">
+        <v>120</v>
+      </c>
+      <c r="B122" s="10">
+        <v>5</v>
+      </c>
+      <c r="C122" s="10">
+        <v>16</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A123" s="10">
+        <v>121</v>
+      </c>
+      <c r="B123" s="10">
+        <v>5</v>
+      </c>
+      <c r="C123" s="10">
+        <v>17</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A124" s="10">
+        <v>122</v>
+      </c>
+      <c r="B124" s="10">
+        <v>5</v>
+      </c>
+      <c r="C124" s="10">
+        <v>18</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A125" s="10">
+        <v>123</v>
+      </c>
+      <c r="B125" s="10">
+        <v>5</v>
+      </c>
+      <c r="C125" s="10">
+        <v>19</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A126" s="10">
+        <v>124</v>
+      </c>
+      <c r="B126" s="10">
+        <v>5</v>
+      </c>
+      <c r="C126" s="10">
+        <v>20</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A127" s="10">
+        <v>125</v>
+      </c>
+      <c r="B127" s="10">
+        <v>5</v>
+      </c>
+      <c r="C127" s="10">
+        <v>21</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A128" s="10">
+        <v>126</v>
+      </c>
+      <c r="B128" s="10">
+        <v>5</v>
+      </c>
+      <c r="C128" s="10">
+        <v>22</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A129" s="10">
+        <v>127</v>
+      </c>
+      <c r="B129" s="10">
+        <v>5</v>
+      </c>
+      <c r="C129" s="10">
+        <v>23</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A130" s="10">
+        <v>128</v>
+      </c>
+      <c r="B130" s="10">
+        <v>5</v>
+      </c>
+      <c r="C130" s="10">
+        <v>24</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A131" s="10">
+        <v>129</v>
+      </c>
+      <c r="B131" s="10">
+        <v>5</v>
+      </c>
+      <c r="C131" s="10">
+        <v>25</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A132" s="10">
+        <v>130</v>
+      </c>
+      <c r="B132" s="10">
+        <v>6</v>
+      </c>
+      <c r="C132" s="10">
+        <v>1</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A133" s="10">
+        <v>131</v>
+      </c>
+      <c r="B133" s="10">
+        <v>6</v>
+      </c>
+      <c r="C133" s="10">
+        <v>2</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A134" s="10">
+        <v>132</v>
+      </c>
+      <c r="B134" s="10">
+        <v>6</v>
+      </c>
+      <c r="C134" s="10">
+        <v>3</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A135" s="10">
+        <v>133</v>
+      </c>
+      <c r="B135" s="10">
+        <v>6</v>
+      </c>
+      <c r="C135" s="10">
+        <v>4</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A136" s="10">
+        <v>134</v>
+      </c>
+      <c r="B136" s="10">
+        <v>6</v>
+      </c>
+      <c r="C136" s="10">
+        <v>5</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A137" s="10">
+        <v>135</v>
+      </c>
+      <c r="B137" s="10">
+        <v>6</v>
+      </c>
+      <c r="C137" s="10">
+        <v>6</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A138" s="10">
+        <v>136</v>
+      </c>
+      <c r="B138" s="10">
+        <v>6</v>
+      </c>
+      <c r="C138" s="10">
+        <v>7</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A139" s="10">
+        <v>137</v>
+      </c>
+      <c r="B139" s="10">
+        <v>6</v>
+      </c>
+      <c r="C139" s="10">
+        <v>8</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A140" s="10">
+        <v>138</v>
+      </c>
+      <c r="B140" s="10">
+        <v>6</v>
+      </c>
+      <c r="C140" s="10">
+        <v>9</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A141" s="10">
+        <v>139</v>
+      </c>
+      <c r="B141" s="10">
+        <v>6</v>
+      </c>
+      <c r="C141" s="10">
+        <v>10</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A142" s="10">
+        <v>140</v>
+      </c>
+      <c r="B142" s="10">
+        <v>6</v>
+      </c>
+      <c r="C142" s="10">
+        <v>11</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A143" s="10">
+        <v>141</v>
+      </c>
+      <c r="B143" s="10">
+        <v>6</v>
+      </c>
+      <c r="C143" s="10">
+        <v>12</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A144" s="10">
+        <v>142</v>
+      </c>
+      <c r="B144" s="10">
+        <v>6</v>
+      </c>
+      <c r="C144" s="10">
+        <v>13</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A145" s="10">
+        <v>143</v>
+      </c>
+      <c r="B145" s="10">
+        <v>6</v>
+      </c>
+      <c r="C145" s="10">
+        <v>14</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A146" s="10">
+        <v>144</v>
+      </c>
+      <c r="B146" s="10">
+        <v>6</v>
+      </c>
+      <c r="C146" s="10">
+        <v>15</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A147" s="10">
+        <v>145</v>
+      </c>
+      <c r="B147" s="10">
+        <v>6</v>
+      </c>
+      <c r="C147" s="10">
+        <v>16</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A148" s="10">
+        <v>146</v>
+      </c>
+      <c r="B148" s="10">
+        <v>6</v>
+      </c>
+      <c r="C148" s="10">
+        <v>17</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A149" s="10">
+        <v>147</v>
+      </c>
+      <c r="B149" s="10">
+        <v>6</v>
+      </c>
+      <c r="C149" s="10">
+        <v>18</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A150" s="10">
+        <v>148</v>
+      </c>
+      <c r="B150" s="10">
+        <v>6</v>
+      </c>
+      <c r="C150" s="10">
+        <v>19</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A151" s="10">
+        <v>149</v>
+      </c>
+      <c r="B151" s="10">
+        <v>6</v>
+      </c>
+      <c r="C151" s="10">
+        <v>20</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A152" s="10">
+        <v>150</v>
+      </c>
+      <c r="B152" s="10">
+        <v>6</v>
+      </c>
+      <c r="C152" s="10">
+        <v>21</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A153" s="10">
+        <v>151</v>
+      </c>
+      <c r="B153" s="10">
+        <v>6</v>
+      </c>
+      <c r="C153" s="10">
+        <v>22</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A154" s="10">
+        <v>152</v>
+      </c>
+      <c r="B154" s="10">
+        <v>6</v>
+      </c>
+      <c r="C154" s="10">
+        <v>23</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A155" s="10">
+        <v>153</v>
+      </c>
+      <c r="B155" s="10">
+        <v>6</v>
+      </c>
+      <c r="C155" s="10">
+        <v>24</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A156" s="10">
+        <v>154</v>
+      </c>
+      <c r="B156" s="10">
+        <v>6</v>
+      </c>
+      <c r="C156" s="10">
+        <v>25</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A157" s="10">
+        <v>155</v>
+      </c>
+      <c r="B157" s="10">
+        <v>7</v>
+      </c>
+      <c r="C157" s="10">
+        <v>1</v>
+      </c>
+      <c r="D157" s="10"/>
+      <c r="E157" s="10">
+        <v>2008</v>
+      </c>
+      <c r="F157" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A158" s="10">
+        <v>156</v>
+      </c>
+      <c r="B158" s="10">
+        <v>8</v>
+      </c>
+      <c r="C158" s="10">
+        <v>1</v>
+      </c>
+      <c r="D158" s="10"/>
+      <c r="E158" s="10">
+        <v>2010</v>
+      </c>
+      <c r="F158" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A159" s="10">
+        <v>157</v>
+      </c>
+      <c r="B159" s="10">
+        <v>9</v>
+      </c>
+      <c r="C159" s="10">
+        <v>1</v>
+      </c>
+      <c r="D159" s="10"/>
+      <c r="E159" s="10">
+        <v>2012</v>
+      </c>
+      <c r="F159" s="10">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="13.5" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -856,50 +4354,183 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6328125" style="3" customWidth="1"/>
-    <col min="5" max="7" width="22.6328125" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="5" width="18.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="21" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="5">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="5">
         <v>27</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="21" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="13.5" thickTop="1"/>
+      <c r="E5" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="5">
+        <v>40</v>
+      </c>
+      <c r="E6" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="5">
+        <v>53</v>
+      </c>
+      <c r="E7" s="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="5">
+        <v>79</v>
+      </c>
+      <c r="E8" s="5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="5">
+        <v>105</v>
+      </c>
+      <c r="E9" s="5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="5">
+        <v>130</v>
+      </c>
+      <c r="E10" s="5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.5" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/seeders/01_SeederWork.xlsx
+++ b/database/seeders/01_SeederWork.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\var\www\work\anime_library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\var\www\work\anime_library\database\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD068FC8-2800-4442-A69D-D4D15055D1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C392C793-A95D-4640-81FB-5F81948C523B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="anime_titles" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="192">
   <si>
     <t>anime_titles</t>
     <phoneticPr fontId="3"/>
@@ -117,10 +117,6 @@
   </si>
   <si>
     <t>end_episode_no</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>note</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1111,12 +1107,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:A1048576"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -1125,19 +1121,17 @@
     <col min="2" max="2" width="67.90625" customWidth="1"/>
     <col min="3" max="3" width="62.81640625" customWidth="1"/>
     <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
+    </row>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1150,11 +1144,8 @@
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
+    </row>
+    <row r="3" spans="1:4" ht="15.5" thickTop="1" thickBot="1">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1167,9 +1158,8 @@
       <c r="D3" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="13.5" thickTop="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="13.5" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1229,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -1246,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
@@ -1263,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5">
         <v>3</v>
@@ -1280,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="5">
         <v>4</v>
@@ -1297,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5">
         <v>5</v>
@@ -1314,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="5">
         <v>6</v>
@@ -1331,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="5">
         <v>2</v>
@@ -1348,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="5">
         <v>8</v>
@@ -1365,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="5">
         <v>7</v>
@@ -1440,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10">
@@ -1458,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10">
@@ -1477,7 +1467,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10">
@@ -1496,7 +1486,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10">
@@ -1515,7 +1505,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10">
@@ -1534,7 +1524,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10">
@@ -1553,7 +1543,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10">
@@ -1572,7 +1562,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10">
@@ -1590,7 +1580,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10">
@@ -1608,7 +1598,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10">
@@ -1627,7 +1617,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10">
@@ -1645,7 +1635,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10">
@@ -1664,7 +1654,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10">
@@ -1683,7 +1673,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10">
@@ -1702,7 +1692,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10">
@@ -1721,7 +1711,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10">
@@ -1740,7 +1730,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10">
@@ -1759,7 +1749,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10">
@@ -1778,7 +1768,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10">
@@ -1797,7 +1787,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10">
@@ -1815,7 +1805,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10">
@@ -1834,7 +1824,7 @@
         <v>22</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10">
@@ -1853,7 +1843,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10">
@@ -1872,7 +1862,7 @@
         <v>24</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10">
@@ -1891,7 +1881,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10">
@@ -1910,7 +1900,7 @@
         <v>26</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10">
@@ -1929,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10">
@@ -1948,7 +1938,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10">
@@ -1967,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10">
@@ -1986,7 +1976,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10">
@@ -2004,7 +1994,7 @@
         <v>5</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10">
@@ -2023,7 +2013,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10">
@@ -2042,7 +2032,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10">
@@ -2061,7 +2051,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10">
@@ -2080,7 +2070,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10">
@@ -2099,7 +2089,7 @@
         <v>10</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10">
@@ -2118,7 +2108,7 @@
         <v>11</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10">
@@ -2137,7 +2127,7 @@
         <v>12</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10">
@@ -2156,7 +2146,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10">
@@ -2175,7 +2165,7 @@
         <v>14</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10">
@@ -2194,7 +2184,7 @@
         <v>15</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10">
@@ -2213,7 +2203,7 @@
         <v>16</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10">
@@ -2232,7 +2222,7 @@
         <v>17</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10">
@@ -2251,7 +2241,7 @@
         <v>18</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10">
@@ -2270,7 +2260,7 @@
         <v>19</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10">
@@ -2289,7 +2279,7 @@
         <v>20</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10">
@@ -2308,7 +2298,7 @@
         <v>21</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="10">
@@ -2327,7 +2317,7 @@
         <v>22</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10">
@@ -2346,7 +2336,7 @@
         <v>23</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10">
@@ -2365,7 +2355,7 @@
         <v>24</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10">
@@ -2384,7 +2374,7 @@
         <v>25</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10">
@@ -2403,7 +2393,7 @@
         <v>26</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10">
@@ -2422,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10">
@@ -2440,7 +2430,7 @@
         <v>2</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10">
@@ -2458,7 +2448,7 @@
         <v>3</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10">
@@ -2477,7 +2467,7 @@
         <v>4</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10">
@@ -2496,7 +2486,7 @@
         <v>5</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10">
@@ -2515,7 +2505,7 @@
         <v>6</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10">
@@ -2534,7 +2524,7 @@
         <v>7</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="10">
@@ -2553,7 +2543,7 @@
         <v>8</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10">
@@ -2572,7 +2562,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10">
@@ -2591,7 +2581,7 @@
         <v>10</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="10">
@@ -2610,7 +2600,7 @@
         <v>11</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="10">
@@ -2629,7 +2619,7 @@
         <v>12</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="10">
@@ -2648,7 +2638,7 @@
         <v>13</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10">
@@ -2667,7 +2657,7 @@
         <v>14</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="10">
@@ -2686,7 +2676,7 @@
         <v>15</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10">
@@ -2705,7 +2695,7 @@
         <v>16</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10">
@@ -2724,7 +2714,7 @@
         <v>17</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="10">
@@ -2743,7 +2733,7 @@
         <v>18</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="10">
@@ -2762,7 +2752,7 @@
         <v>19</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="10">
@@ -2781,7 +2771,7 @@
         <v>20</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="10">
@@ -2800,7 +2790,7 @@
         <v>21</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="10">
@@ -2819,7 +2809,7 @@
         <v>22</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="10">
@@ -2838,7 +2828,7 @@
         <v>23</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="10">
@@ -2857,7 +2847,7 @@
         <v>24</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="10">
@@ -2876,7 +2866,7 @@
         <v>25</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="10">
@@ -2895,7 +2885,7 @@
         <v>26</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E80" s="10"/>
       <c r="F80" s="10">
@@ -2914,7 +2904,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="10">
@@ -2933,7 +2923,7 @@
         <v>2</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="10">
@@ -2951,7 +2941,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="10">
@@ -2970,7 +2960,7 @@
         <v>4</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="10">
@@ -2989,7 +2979,7 @@
         <v>5</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E85" s="10"/>
       <c r="F85" s="10">
@@ -3007,7 +2997,7 @@
         <v>6</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="10">
@@ -3026,7 +3016,7 @@
         <v>7</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E87" s="10"/>
       <c r="F87" s="10">
@@ -3044,7 +3034,7 @@
         <v>8</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E88" s="10"/>
       <c r="F88" s="10">
@@ -3062,7 +3052,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E89" s="10"/>
       <c r="F89" s="10">
@@ -3081,7 +3071,7 @@
         <v>10</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E90" s="10"/>
       <c r="F90" s="10">
@@ -3099,7 +3089,7 @@
         <v>11</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="10">
@@ -3118,7 +3108,7 @@
         <v>12</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="10">
@@ -3136,7 +3126,7 @@
         <v>13</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="10">
@@ -3155,7 +3145,7 @@
         <v>14</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E94" s="10"/>
       <c r="F94" s="10">
@@ -3173,7 +3163,7 @@
         <v>15</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E95" s="10"/>
       <c r="F95" s="10">
@@ -3192,7 +3182,7 @@
         <v>16</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="10">
@@ -3210,7 +3200,7 @@
         <v>17</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E97" s="10"/>
       <c r="F97" s="10">
@@ -3229,7 +3219,7 @@
         <v>18</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E98" s="10"/>
       <c r="F98" s="10">
@@ -3247,7 +3237,7 @@
         <v>19</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="10">
@@ -3266,7 +3256,7 @@
         <v>20</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="10">
@@ -3284,7 +3274,7 @@
         <v>21</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E101" s="10"/>
       <c r="F101" s="10">
@@ -3303,7 +3293,7 @@
         <v>22</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E102" s="10"/>
       <c r="F102" s="10">
@@ -3321,7 +3311,7 @@
         <v>23</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E103" s="10"/>
       <c r="F103" s="10">
@@ -3339,7 +3329,7 @@
         <v>24</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="10">
@@ -3358,7 +3348,7 @@
         <v>25</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E105" s="10"/>
       <c r="F105" s="10">
@@ -3376,7 +3366,7 @@
         <v>26</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E106" s="10"/>
       <c r="F106" s="10">
@@ -3395,7 +3385,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="10">
@@ -3413,7 +3403,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E108" s="10"/>
       <c r="F108" s="10">
@@ -3432,7 +3422,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="10">
@@ -3451,7 +3441,7 @@
         <v>4</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="10">
@@ -3469,7 +3459,7 @@
         <v>5</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="10">
@@ -3488,7 +3478,7 @@
         <v>6</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E112" s="10"/>
       <c r="F112" s="10">
@@ -3506,7 +3496,7 @@
         <v>7</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="10">
@@ -3525,7 +3515,7 @@
         <v>8</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="10">
@@ -3543,7 +3533,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E115" s="10"/>
       <c r="F115" s="10">
@@ -3561,7 +3551,7 @@
         <v>10</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E116" s="10"/>
       <c r="F116" s="10">
@@ -3579,7 +3569,7 @@
         <v>11</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="10">
@@ -3597,7 +3587,7 @@
         <v>12</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E118" s="10"/>
       <c r="F118" s="10">
@@ -3615,7 +3605,7 @@
         <v>13</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E119" s="10"/>
       <c r="F119" s="10">
@@ -3633,7 +3623,7 @@
         <v>14</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E120" s="10"/>
       <c r="F120" s="10">
@@ -3651,7 +3641,7 @@
         <v>15</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E121" s="10"/>
       <c r="F121" s="10">
@@ -3669,7 +3659,7 @@
         <v>16</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E122" s="10"/>
       <c r="F122" s="10">
@@ -3687,7 +3677,7 @@
         <v>17</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="10">
@@ -3705,7 +3695,7 @@
         <v>18</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="10">
@@ -3723,7 +3713,7 @@
         <v>19</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="10">
@@ -3741,7 +3731,7 @@
         <v>20</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E126" s="10"/>
       <c r="F126" s="10">
@@ -3759,7 +3749,7 @@
         <v>21</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10">
@@ -3777,7 +3767,7 @@
         <v>22</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="10">
@@ -3795,7 +3785,7 @@
         <v>23</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E129" s="10"/>
       <c r="F129" s="10">
@@ -3813,7 +3803,7 @@
         <v>24</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="10">
@@ -3831,7 +3821,7 @@
         <v>25</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E131" s="10"/>
       <c r="F131" s="10">
@@ -3849,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="10">
@@ -3867,7 +3857,7 @@
         <v>2</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="10">
@@ -3885,7 +3875,7 @@
         <v>3</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="10">
@@ -3903,7 +3893,7 @@
         <v>4</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E135" s="10"/>
       <c r="F135" s="10">
@@ -3921,7 +3911,7 @@
         <v>5</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="10">
@@ -3939,7 +3929,7 @@
         <v>6</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="10">
@@ -3957,7 +3947,7 @@
         <v>7</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E138" s="10"/>
       <c r="F138" s="10">
@@ -3975,7 +3965,7 @@
         <v>8</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="10">
@@ -3993,7 +3983,7 @@
         <v>9</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E140" s="10"/>
       <c r="F140" s="10">
@@ -4011,7 +4001,7 @@
         <v>10</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E141" s="10"/>
       <c r="F141" s="10">
@@ -4029,7 +4019,7 @@
         <v>11</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E142" s="10"/>
       <c r="F142" s="10">
@@ -4047,7 +4037,7 @@
         <v>12</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E143" s="10"/>
       <c r="F143" s="10">
@@ -4065,7 +4055,7 @@
         <v>13</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E144" s="10"/>
       <c r="F144" s="10">
@@ -4083,7 +4073,7 @@
         <v>14</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E145" s="10"/>
       <c r="F145" s="10">
@@ -4101,7 +4091,7 @@
         <v>15</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E146" s="10"/>
       <c r="F146" s="10">
@@ -4119,7 +4109,7 @@
         <v>16</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E147" s="10"/>
       <c r="F147" s="10">
@@ -4137,7 +4127,7 @@
         <v>17</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E148" s="10"/>
       <c r="F148" s="10">
@@ -4155,7 +4145,7 @@
         <v>18</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E149" s="10"/>
       <c r="F149" s="10">
@@ -4173,7 +4163,7 @@
         <v>19</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E150" s="10"/>
       <c r="F150" s="10">
@@ -4191,7 +4181,7 @@
         <v>20</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E151" s="10"/>
       <c r="F151" s="10">
@@ -4209,7 +4199,7 @@
         <v>21</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E152" s="10"/>
       <c r="F152" s="10">
@@ -4227,7 +4217,7 @@
         <v>22</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E153" s="10"/>
       <c r="F153" s="10">
@@ -4245,7 +4235,7 @@
         <v>23</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E154" s="10"/>
       <c r="F154" s="10">
@@ -4263,7 +4253,7 @@
         <v>24</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E155" s="10"/>
       <c r="F155" s="10">
@@ -4281,7 +4271,7 @@
         <v>25</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E156" s="10"/>
       <c r="F156" s="10">
@@ -4402,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -4419,7 +4409,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D4" s="5">
         <v>7</v>
@@ -4436,7 +4426,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="5">
         <v>27</v>
@@ -4453,7 +4443,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="5">
         <v>40</v>
@@ -4470,7 +4460,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="5">
         <v>53</v>
@@ -4487,7 +4477,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="5">
         <v>79</v>
@@ -4504,7 +4494,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" s="5">
         <v>105</v>
@@ -4521,7 +4511,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10" s="5">
         <v>130</v>

--- a/database/seeders/01_SeederWork.xlsx
+++ b/database/seeders/01_SeederWork.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\var\www\work\anime_library\database\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C392C793-A95D-4640-81FB-5F81948C523B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BA9008-2E8A-4523-BC66-E214C70A8E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27615" yWindow="1515" windowWidth="18015" windowHeight="12930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="anime_titles" sheetId="1" r:id="rId1"/>
@@ -1173,10 +1173,10 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:A1048576"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -1239,7 +1239,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -1256,7 +1256,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -1273,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -1290,7 +1290,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -1307,7 +1307,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="5">
         <v>2</v>
@@ -1358,7 +1358,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" s="5">
         <v>2</v>
@@ -4346,7 +4346,7 @@
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>

--- a/database/seeders/01_SeederWork.xlsx
+++ b/database/seeders/01_SeederWork.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\var\www\work\anime_library\database\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BA9008-2E8A-4523-BC66-E214C70A8E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98492B7-BECB-4230-8370-E6E7C51D0BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27615" yWindow="1515" windowWidth="18015" windowHeight="12930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18465" yWindow="2265" windowWidth="17280" windowHeight="12930" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="anime_titles" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="221">
   <si>
     <t>anime_titles</t>
     <phoneticPr fontId="3"/>
@@ -675,13 +675,1054 @@
   <si>
     <t>リトルリーグ編</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>sort_order</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>話</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>6話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>7話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>8話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>9話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>11話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>12話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>13話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>14話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>15話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>16話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>17話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>18話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>19話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>20話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>21話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>22話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>23話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>24話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>25話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>26話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>話</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>話</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,6 +1763,20 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -780,7 +1835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -802,6 +1857,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1173,7 +2230,7 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
@@ -1378,10 +2435,10 @@
   </sheetPr>
   <dimension ref="A1:O160"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:A1048576"/>
-      <selection pane="bottomLeft" activeCell="F159" sqref="F159"/>
+      <selection pane="bottomLeft" activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -1390,6 +2447,7 @@
     <col min="2" max="3" width="16.453125" customWidth="1"/>
     <col min="4" max="4" width="36.54296875" customWidth="1"/>
     <col min="5" max="6" width="16.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
@@ -1418,6 +2476,9 @@
       <c r="F2" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="G2" s="10" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="3" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
       <c r="A3" s="10">
@@ -1426,8 +2487,8 @@
       <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
-        <v>1</v>
+      <c r="C3" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>30</v>
@@ -1435,6 +2496,9 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10">
         <v>25</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -1444,8 +2508,8 @@
       <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="10">
-        <v>2</v>
+      <c r="C4" s="13" t="s">
+        <v>194</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>31</v>
@@ -1453,6 +2517,9 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10">
         <v>25</v>
+      </c>
+      <c r="G4" s="10">
+        <v>2</v>
       </c>
       <c r="O4" s="9"/>
     </row>
@@ -1463,8 +2530,8 @@
       <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="10">
-        <v>3</v>
+      <c r="C5" s="13" t="s">
+        <v>195</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>32</v>
@@ -1472,6 +2539,9 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10">
         <v>25</v>
+      </c>
+      <c r="G5" s="10">
+        <v>3</v>
       </c>
       <c r="O5" s="9"/>
     </row>
@@ -1482,8 +2552,8 @@
       <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="10">
-        <v>4</v>
+      <c r="C6" s="13" t="s">
+        <v>196</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>33</v>
@@ -1491,6 +2561,9 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10">
         <v>25</v>
+      </c>
+      <c r="G6" s="10">
+        <v>4</v>
       </c>
       <c r="O6" s="9"/>
     </row>
@@ -1501,8 +2574,8 @@
       <c r="B7" s="10">
         <v>1</v>
       </c>
-      <c r="C7" s="10">
-        <v>5</v>
+      <c r="C7" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>34</v>
@@ -1510,6 +2583,9 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10">
         <v>25</v>
+      </c>
+      <c r="G7" s="10">
+        <v>5</v>
       </c>
       <c r="O7" s="9"/>
     </row>
@@ -1520,8 +2596,8 @@
       <c r="B8" s="10">
         <v>1</v>
       </c>
-      <c r="C8" s="10">
-        <v>6</v>
+      <c r="C8" s="13" t="s">
+        <v>198</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>35</v>
@@ -1529,6 +2605,9 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10">
         <v>25</v>
+      </c>
+      <c r="G8" s="10">
+        <v>6</v>
       </c>
       <c r="O8" s="9"/>
     </row>
@@ -1539,8 +2618,8 @@
       <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="10">
-        <v>7</v>
+      <c r="C9" s="13" t="s">
+        <v>199</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>36</v>
@@ -1548,6 +2627,9 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10">
         <v>25</v>
+      </c>
+      <c r="G9" s="10">
+        <v>7</v>
       </c>
       <c r="O9" s="9"/>
     </row>
@@ -1558,8 +2640,8 @@
       <c r="B10" s="10">
         <v>1</v>
       </c>
-      <c r="C10" s="10">
-        <v>8</v>
+      <c r="C10" s="13" t="s">
+        <v>200</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>37</v>
@@ -1567,6 +2649,9 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10">
         <v>25</v>
+      </c>
+      <c r="G10" s="10">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -1576,8 +2661,8 @@
       <c r="B11" s="10">
         <v>1</v>
       </c>
-      <c r="C11" s="10">
-        <v>9</v>
+      <c r="C11" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>38</v>
@@ -1585,6 +2670,9 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10">
         <v>25</v>
+      </c>
+      <c r="G11" s="10">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -1594,8 +2682,8 @@
       <c r="B12" s="10">
         <v>1</v>
       </c>
-      <c r="C12" s="10">
-        <v>10</v>
+      <c r="C12" s="13" t="s">
+        <v>202</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>39</v>
@@ -1603,6 +2691,9 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10">
         <v>25</v>
+      </c>
+      <c r="G12" s="10">
+        <v>10</v>
       </c>
       <c r="O12" s="9"/>
     </row>
@@ -1613,8 +2704,8 @@
       <c r="B13" s="10">
         <v>1</v>
       </c>
-      <c r="C13" s="10">
-        <v>11</v>
+      <c r="C13" s="13" t="s">
+        <v>203</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>40</v>
@@ -1622,6 +2713,9 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10">
         <v>25</v>
+      </c>
+      <c r="G13" s="10">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -1631,8 +2725,8 @@
       <c r="B14" s="10">
         <v>1</v>
       </c>
-      <c r="C14" s="10">
-        <v>12</v>
+      <c r="C14" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>41</v>
@@ -1640,6 +2734,9 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10">
         <v>25</v>
+      </c>
+      <c r="G14" s="10">
+        <v>12</v>
       </c>
       <c r="O14" s="9"/>
     </row>
@@ -1650,8 +2747,8 @@
       <c r="B15" s="10">
         <v>1</v>
       </c>
-      <c r="C15" s="10">
-        <v>13</v>
+      <c r="C15" s="13" t="s">
+        <v>205</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>42</v>
@@ -1659,6 +2756,9 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10">
         <v>25</v>
+      </c>
+      <c r="G15" s="10">
+        <v>13</v>
       </c>
       <c r="O15" s="9"/>
     </row>
@@ -1669,8 +2769,8 @@
       <c r="B16" s="10">
         <v>1</v>
       </c>
-      <c r="C16" s="10">
-        <v>14</v>
+      <c r="C16" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>43</v>
@@ -1678,6 +2778,9 @@
       <c r="E16" s="10"/>
       <c r="F16" s="10">
         <v>25</v>
+      </c>
+      <c r="G16" s="10">
+        <v>14</v>
       </c>
       <c r="O16" s="9"/>
     </row>
@@ -1688,8 +2791,8 @@
       <c r="B17" s="10">
         <v>1</v>
       </c>
-      <c r="C17" s="10">
-        <v>15</v>
+      <c r="C17" s="13" t="s">
+        <v>207</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>44</v>
@@ -1697,6 +2800,9 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10">
         <v>25</v>
+      </c>
+      <c r="G17" s="10">
+        <v>15</v>
       </c>
       <c r="O17" s="9"/>
     </row>
@@ -1707,8 +2813,8 @@
       <c r="B18" s="10">
         <v>1</v>
       </c>
-      <c r="C18" s="10">
-        <v>16</v>
+      <c r="C18" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>45</v>
@@ -1716,6 +2822,9 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10">
         <v>25</v>
+      </c>
+      <c r="G18" s="10">
+        <v>16</v>
       </c>
       <c r="O18" s="9"/>
     </row>
@@ -1726,8 +2835,8 @@
       <c r="B19" s="10">
         <v>1</v>
       </c>
-      <c r="C19" s="10">
-        <v>17</v>
+      <c r="C19" s="13" t="s">
+        <v>209</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>46</v>
@@ -1735,6 +2844,9 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10">
         <v>25</v>
+      </c>
+      <c r="G19" s="10">
+        <v>17</v>
       </c>
       <c r="O19" s="9"/>
     </row>
@@ -1745,8 +2857,8 @@
       <c r="B20" s="10">
         <v>1</v>
       </c>
-      <c r="C20" s="10">
-        <v>18</v>
+      <c r="C20" s="13" t="s">
+        <v>210</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>47</v>
@@ -1754,6 +2866,9 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10">
         <v>25</v>
+      </c>
+      <c r="G20" s="10">
+        <v>18</v>
       </c>
       <c r="O20" s="9"/>
     </row>
@@ -1764,8 +2879,8 @@
       <c r="B21" s="10">
         <v>1</v>
       </c>
-      <c r="C21" s="10">
-        <v>19</v>
+      <c r="C21" s="13" t="s">
+        <v>211</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>48</v>
@@ -1773,6 +2888,9 @@
       <c r="E21" s="10"/>
       <c r="F21" s="10">
         <v>25</v>
+      </c>
+      <c r="G21" s="10">
+        <v>19</v>
       </c>
       <c r="O21" s="9"/>
     </row>
@@ -1783,8 +2901,8 @@
       <c r="B22" s="10">
         <v>1</v>
       </c>
-      <c r="C22" s="10">
-        <v>20</v>
+      <c r="C22" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>49</v>
@@ -1792,6 +2910,9 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10">
         <v>25</v>
+      </c>
+      <c r="G22" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -1801,8 +2922,8 @@
       <c r="B23" s="10">
         <v>1</v>
       </c>
-      <c r="C23" s="10">
-        <v>21</v>
+      <c r="C23" s="13" t="s">
+        <v>213</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>50</v>
@@ -1810,6 +2931,9 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10">
         <v>25</v>
+      </c>
+      <c r="G23" s="10">
+        <v>21</v>
       </c>
       <c r="O23" s="9"/>
     </row>
@@ -1820,8 +2944,8 @@
       <c r="B24" s="10">
         <v>1</v>
       </c>
-      <c r="C24" s="10">
-        <v>22</v>
+      <c r="C24" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>51</v>
@@ -1829,6 +2953,9 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10">
         <v>25</v>
+      </c>
+      <c r="G24" s="10">
+        <v>22</v>
       </c>
       <c r="O24" s="9"/>
     </row>
@@ -1839,8 +2966,8 @@
       <c r="B25" s="10">
         <v>1</v>
       </c>
-      <c r="C25" s="10">
-        <v>23</v>
+      <c r="C25" s="13" t="s">
+        <v>215</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>52</v>
@@ -1849,6 +2976,9 @@
       <c r="F25" s="10">
         <v>25</v>
       </c>
+      <c r="G25" s="10">
+        <v>23</v>
+      </c>
       <c r="O25" s="9"/>
     </row>
     <row r="26" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -1858,8 +2988,8 @@
       <c r="B26" s="10">
         <v>1</v>
       </c>
-      <c r="C26" s="10">
-        <v>24</v>
+      <c r="C26" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>53</v>
@@ -1868,6 +2998,9 @@
       <c r="F26" s="10">
         <v>25</v>
       </c>
+      <c r="G26" s="10">
+        <v>24</v>
+      </c>
       <c r="O26" s="9"/>
     </row>
     <row r="27" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -1877,14 +3010,17 @@
       <c r="B27" s="10">
         <v>1</v>
       </c>
-      <c r="C27" s="10">
-        <v>25</v>
+      <c r="C27" s="13" t="s">
+        <v>217</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10">
+        <v>25</v>
+      </c>
+      <c r="G27" s="10">
         <v>25</v>
       </c>
       <c r="O27" s="9"/>
@@ -1896,8 +3032,8 @@
       <c r="B28" s="10">
         <v>1</v>
       </c>
-      <c r="C28" s="10">
-        <v>26</v>
+      <c r="C28" s="13" t="s">
+        <v>218</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>55</v>
@@ -1905,6 +3041,9 @@
       <c r="E28" s="10"/>
       <c r="F28" s="10">
         <v>25</v>
+      </c>
+      <c r="G28" s="10">
+        <v>26</v>
       </c>
       <c r="O28" s="9"/>
     </row>
@@ -1915,8 +3054,8 @@
       <c r="B29" s="10">
         <v>2</v>
       </c>
-      <c r="C29" s="10">
-        <v>1</v>
+      <c r="C29" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>56</v>
@@ -1924,6 +3063,9 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10">
         <v>25</v>
+      </c>
+      <c r="G29" s="10">
+        <v>1</v>
       </c>
       <c r="O29" s="9"/>
     </row>
@@ -1934,8 +3076,8 @@
       <c r="B30" s="10">
         <v>2</v>
       </c>
-      <c r="C30" s="10">
-        <v>2</v>
+      <c r="C30" s="13" t="s">
+        <v>194</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>57</v>
@@ -1943,6 +3085,9 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10">
         <v>25</v>
+      </c>
+      <c r="G30" s="10">
+        <v>2</v>
       </c>
       <c r="O30" s="9"/>
     </row>
@@ -1953,8 +3098,8 @@
       <c r="B31" s="10">
         <v>2</v>
       </c>
-      <c r="C31" s="10">
-        <v>3</v>
+      <c r="C31" s="13" t="s">
+        <v>195</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>58</v>
@@ -1962,6 +3107,9 @@
       <c r="E31" s="10"/>
       <c r="F31" s="10">
         <v>25</v>
+      </c>
+      <c r="G31" s="10">
+        <v>3</v>
       </c>
       <c r="O31" s="9"/>
     </row>
@@ -1972,8 +3120,8 @@
       <c r="B32" s="10">
         <v>2</v>
       </c>
-      <c r="C32" s="10">
-        <v>4</v>
+      <c r="C32" s="13" t="s">
+        <v>196</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>59</v>
@@ -1981,6 +3129,9 @@
       <c r="E32" s="10"/>
       <c r="F32" s="10">
         <v>25</v>
+      </c>
+      <c r="G32" s="10">
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -1990,8 +3141,8 @@
       <c r="B33" s="10">
         <v>2</v>
       </c>
-      <c r="C33" s="10">
-        <v>5</v>
+      <c r="C33" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>60</v>
@@ -1999,6 +3150,9 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10">
         <v>25</v>
+      </c>
+      <c r="G33" s="10">
+        <v>5</v>
       </c>
       <c r="O33" s="9"/>
     </row>
@@ -2009,8 +3163,8 @@
       <c r="B34" s="10">
         <v>2</v>
       </c>
-      <c r="C34" s="10">
-        <v>6</v>
+      <c r="C34" s="13" t="s">
+        <v>198</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>61</v>
@@ -2018,6 +3172,9 @@
       <c r="E34" s="10"/>
       <c r="F34" s="10">
         <v>25</v>
+      </c>
+      <c r="G34" s="10">
+        <v>6</v>
       </c>
       <c r="O34" s="9"/>
     </row>
@@ -2028,8 +3185,8 @@
       <c r="B35" s="10">
         <v>2</v>
       </c>
-      <c r="C35" s="10">
-        <v>7</v>
+      <c r="C35" s="13" t="s">
+        <v>199</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>62</v>
@@ -2037,6 +3194,9 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10">
         <v>25</v>
+      </c>
+      <c r="G35" s="10">
+        <v>7</v>
       </c>
       <c r="O35" s="9"/>
     </row>
@@ -2047,8 +3207,8 @@
       <c r="B36" s="10">
         <v>2</v>
       </c>
-      <c r="C36" s="10">
-        <v>8</v>
+      <c r="C36" s="13" t="s">
+        <v>200</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>63</v>
@@ -2056,6 +3216,9 @@
       <c r="E36" s="10"/>
       <c r="F36" s="10">
         <v>25</v>
+      </c>
+      <c r="G36" s="10">
+        <v>8</v>
       </c>
       <c r="O36" s="9"/>
     </row>
@@ -2066,8 +3229,8 @@
       <c r="B37" s="10">
         <v>2</v>
       </c>
-      <c r="C37" s="10">
-        <v>9</v>
+      <c r="C37" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>64</v>
@@ -2075,6 +3238,9 @@
       <c r="E37" s="10"/>
       <c r="F37" s="10">
         <v>25</v>
+      </c>
+      <c r="G37" s="10">
+        <v>9</v>
       </c>
       <c r="O37" s="9"/>
     </row>
@@ -2085,8 +3251,8 @@
       <c r="B38" s="10">
         <v>2</v>
       </c>
-      <c r="C38" s="10">
-        <v>10</v>
+      <c r="C38" s="13" t="s">
+        <v>202</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>65</v>
@@ -2094,6 +3260,9 @@
       <c r="E38" s="10"/>
       <c r="F38" s="10">
         <v>25</v>
+      </c>
+      <c r="G38" s="10">
+        <v>10</v>
       </c>
       <c r="O38" s="9"/>
     </row>
@@ -2104,8 +3273,8 @@
       <c r="B39" s="10">
         <v>2</v>
       </c>
-      <c r="C39" s="10">
-        <v>11</v>
+      <c r="C39" s="13" t="s">
+        <v>203</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>66</v>
@@ -2113,6 +3282,9 @@
       <c r="E39" s="10"/>
       <c r="F39" s="10">
         <v>25</v>
+      </c>
+      <c r="G39" s="10">
+        <v>11</v>
       </c>
       <c r="O39" s="9"/>
     </row>
@@ -2123,8 +3295,8 @@
       <c r="B40" s="10">
         <v>2</v>
       </c>
-      <c r="C40" s="10">
-        <v>12</v>
+      <c r="C40" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>67</v>
@@ -2132,6 +3304,9 @@
       <c r="E40" s="10"/>
       <c r="F40" s="10">
         <v>25</v>
+      </c>
+      <c r="G40" s="10">
+        <v>12</v>
       </c>
       <c r="O40" s="9"/>
     </row>
@@ -2142,8 +3317,8 @@
       <c r="B41" s="10">
         <v>2</v>
       </c>
-      <c r="C41" s="10">
-        <v>13</v>
+      <c r="C41" s="13" t="s">
+        <v>205</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>68</v>
@@ -2151,6 +3326,9 @@
       <c r="E41" s="10"/>
       <c r="F41" s="10">
         <v>25</v>
+      </c>
+      <c r="G41" s="10">
+        <v>13</v>
       </c>
       <c r="O41" s="9"/>
     </row>
@@ -2161,8 +3339,8 @@
       <c r="B42" s="10">
         <v>2</v>
       </c>
-      <c r="C42" s="10">
-        <v>14</v>
+      <c r="C42" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>70</v>
@@ -2170,6 +3348,9 @@
       <c r="E42" s="10"/>
       <c r="F42" s="10">
         <v>25</v>
+      </c>
+      <c r="G42" s="10">
+        <v>14</v>
       </c>
       <c r="O42" s="9"/>
     </row>
@@ -2180,8 +3361,8 @@
       <c r="B43" s="10">
         <v>2</v>
       </c>
-      <c r="C43" s="10">
-        <v>15</v>
+      <c r="C43" s="13" t="s">
+        <v>207</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>71</v>
@@ -2189,6 +3370,9 @@
       <c r="E43" s="10"/>
       <c r="F43" s="10">
         <v>25</v>
+      </c>
+      <c r="G43" s="10">
+        <v>15</v>
       </c>
       <c r="O43" s="9"/>
     </row>
@@ -2199,8 +3383,8 @@
       <c r="B44" s="10">
         <v>2</v>
       </c>
-      <c r="C44" s="10">
-        <v>16</v>
+      <c r="C44" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>72</v>
@@ -2208,6 +3392,9 @@
       <c r="E44" s="10"/>
       <c r="F44" s="10">
         <v>25</v>
+      </c>
+      <c r="G44" s="10">
+        <v>16</v>
       </c>
       <c r="O44" s="9"/>
     </row>
@@ -2218,8 +3405,8 @@
       <c r="B45" s="10">
         <v>2</v>
       </c>
-      <c r="C45" s="10">
-        <v>17</v>
+      <c r="C45" s="13" t="s">
+        <v>209</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>73</v>
@@ -2227,6 +3414,9 @@
       <c r="E45" s="10"/>
       <c r="F45" s="10">
         <v>25</v>
+      </c>
+      <c r="G45" s="10">
+        <v>17</v>
       </c>
       <c r="O45" s="9"/>
     </row>
@@ -2237,8 +3427,8 @@
       <c r="B46" s="10">
         <v>2</v>
       </c>
-      <c r="C46" s="10">
-        <v>18</v>
+      <c r="C46" s="13" t="s">
+        <v>210</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>74</v>
@@ -2246,6 +3436,9 @@
       <c r="E46" s="10"/>
       <c r="F46" s="10">
         <v>25</v>
+      </c>
+      <c r="G46" s="10">
+        <v>18</v>
       </c>
       <c r="O46" s="9"/>
     </row>
@@ -2256,8 +3449,8 @@
       <c r="B47" s="10">
         <v>2</v>
       </c>
-      <c r="C47" s="10">
-        <v>19</v>
+      <c r="C47" s="13" t="s">
+        <v>211</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>75</v>
@@ -2265,6 +3458,9 @@
       <c r="E47" s="10"/>
       <c r="F47" s="10">
         <v>25</v>
+      </c>
+      <c r="G47" s="10">
+        <v>19</v>
       </c>
       <c r="O47" s="9"/>
     </row>
@@ -2275,8 +3471,8 @@
       <c r="B48" s="10">
         <v>2</v>
       </c>
-      <c r="C48" s="10">
-        <v>20</v>
+      <c r="C48" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>76</v>
@@ -2284,6 +3480,9 @@
       <c r="E48" s="10"/>
       <c r="F48" s="10">
         <v>25</v>
+      </c>
+      <c r="G48" s="10">
+        <v>20</v>
       </c>
       <c r="O48" s="9"/>
     </row>
@@ -2294,8 +3493,8 @@
       <c r="B49" s="10">
         <v>2</v>
       </c>
-      <c r="C49" s="10">
-        <v>21</v>
+      <c r="C49" s="13" t="s">
+        <v>213</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>77</v>
@@ -2303,6 +3502,9 @@
       <c r="E49" s="10"/>
       <c r="F49" s="10">
         <v>25</v>
+      </c>
+      <c r="G49" s="10">
+        <v>21</v>
       </c>
       <c r="O49" s="9"/>
     </row>
@@ -2313,8 +3515,8 @@
       <c r="B50" s="10">
         <v>2</v>
       </c>
-      <c r="C50" s="10">
-        <v>22</v>
+      <c r="C50" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>78</v>
@@ -2322,6 +3524,9 @@
       <c r="E50" s="10"/>
       <c r="F50" s="10">
         <v>25</v>
+      </c>
+      <c r="G50" s="10">
+        <v>22</v>
       </c>
       <c r="O50" s="9"/>
     </row>
@@ -2332,8 +3537,8 @@
       <c r="B51" s="10">
         <v>2</v>
       </c>
-      <c r="C51" s="10">
-        <v>23</v>
+      <c r="C51" s="13" t="s">
+        <v>215</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>79</v>
@@ -2341,6 +3546,9 @@
       <c r="E51" s="10"/>
       <c r="F51" s="10">
         <v>25</v>
+      </c>
+      <c r="G51" s="10">
+        <v>23</v>
       </c>
       <c r="O51" s="9"/>
     </row>
@@ -2351,8 +3559,8 @@
       <c r="B52" s="10">
         <v>2</v>
       </c>
-      <c r="C52" s="10">
-        <v>24</v>
+      <c r="C52" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>80</v>
@@ -2360,6 +3568,9 @@
       <c r="E52" s="10"/>
       <c r="F52" s="10">
         <v>25</v>
+      </c>
+      <c r="G52" s="10">
+        <v>24</v>
       </c>
       <c r="O52" s="9"/>
     </row>
@@ -2370,14 +3581,17 @@
       <c r="B53" s="10">
         <v>2</v>
       </c>
-      <c r="C53" s="10">
-        <v>25</v>
+      <c r="C53" s="13" t="s">
+        <v>217</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>81</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10">
+        <v>25</v>
+      </c>
+      <c r="G53" s="10">
         <v>25</v>
       </c>
       <c r="O53" s="9"/>
@@ -2389,8 +3603,8 @@
       <c r="B54" s="10">
         <v>2</v>
       </c>
-      <c r="C54" s="10">
-        <v>26</v>
+      <c r="C54" s="13" t="s">
+        <v>218</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>82</v>
@@ -2398,6 +3612,9 @@
       <c r="E54" s="10"/>
       <c r="F54" s="10">
         <v>25</v>
+      </c>
+      <c r="G54" s="10">
+        <v>26</v>
       </c>
       <c r="O54" s="9"/>
     </row>
@@ -2408,8 +3625,8 @@
       <c r="B55" s="10">
         <v>3</v>
       </c>
-      <c r="C55" s="10">
-        <v>1</v>
+      <c r="C55" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>85</v>
@@ -2417,6 +3634,9 @@
       <c r="E55" s="10"/>
       <c r="F55" s="10">
         <v>25</v>
+      </c>
+      <c r="G55" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -2426,8 +3646,8 @@
       <c r="B56" s="10">
         <v>3</v>
       </c>
-      <c r="C56" s="10">
-        <v>2</v>
+      <c r="C56" s="13" t="s">
+        <v>194</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>86</v>
@@ -2435,6 +3655,9 @@
       <c r="E56" s="10"/>
       <c r="F56" s="10">
         <v>25</v>
+      </c>
+      <c r="G56" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -2444,8 +3667,8 @@
       <c r="B57" s="10">
         <v>3</v>
       </c>
-      <c r="C57" s="10">
-        <v>3</v>
+      <c r="C57" s="13" t="s">
+        <v>195</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>87</v>
@@ -2453,6 +3676,9 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10">
         <v>25</v>
+      </c>
+      <c r="G57" s="10">
+        <v>3</v>
       </c>
       <c r="O57" s="9"/>
     </row>
@@ -2463,8 +3689,8 @@
       <c r="B58" s="10">
         <v>3</v>
       </c>
-      <c r="C58" s="10">
-        <v>4</v>
+      <c r="C58" s="13" t="s">
+        <v>196</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>88</v>
@@ -2472,6 +3698,9 @@
       <c r="E58" s="10"/>
       <c r="F58" s="10">
         <v>25</v>
+      </c>
+      <c r="G58" s="10">
+        <v>4</v>
       </c>
       <c r="O58" s="9"/>
     </row>
@@ -2482,8 +3711,8 @@
       <c r="B59" s="10">
         <v>3</v>
       </c>
-      <c r="C59" s="10">
-        <v>5</v>
+      <c r="C59" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>89</v>
@@ -2491,6 +3720,9 @@
       <c r="E59" s="10"/>
       <c r="F59" s="10">
         <v>25</v>
+      </c>
+      <c r="G59" s="10">
+        <v>5</v>
       </c>
       <c r="O59" s="9"/>
     </row>
@@ -2501,8 +3733,8 @@
       <c r="B60" s="10">
         <v>3</v>
       </c>
-      <c r="C60" s="10">
-        <v>6</v>
+      <c r="C60" s="13" t="s">
+        <v>198</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>90</v>
@@ -2510,6 +3742,9 @@
       <c r="E60" s="10"/>
       <c r="F60" s="10">
         <v>25</v>
+      </c>
+      <c r="G60" s="10">
+        <v>6</v>
       </c>
       <c r="O60" s="9"/>
     </row>
@@ -2520,8 +3755,8 @@
       <c r="B61" s="10">
         <v>3</v>
       </c>
-      <c r="C61" s="10">
-        <v>7</v>
+      <c r="C61" s="13" t="s">
+        <v>199</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>91</v>
@@ -2529,6 +3764,9 @@
       <c r="E61" s="10"/>
       <c r="F61" s="10">
         <v>25</v>
+      </c>
+      <c r="G61" s="10">
+        <v>7</v>
       </c>
       <c r="O61" s="9"/>
     </row>
@@ -2539,8 +3777,8 @@
       <c r="B62" s="10">
         <v>3</v>
       </c>
-      <c r="C62" s="10">
-        <v>8</v>
+      <c r="C62" s="13" t="s">
+        <v>200</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>92</v>
@@ -2548,6 +3786,9 @@
       <c r="E62" s="10"/>
       <c r="F62" s="10">
         <v>25</v>
+      </c>
+      <c r="G62" s="10">
+        <v>8</v>
       </c>
       <c r="O62" s="9"/>
     </row>
@@ -2558,8 +3799,8 @@
       <c r="B63" s="10">
         <v>3</v>
       </c>
-      <c r="C63" s="10">
-        <v>9</v>
+      <c r="C63" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>93</v>
@@ -2567,6 +3808,9 @@
       <c r="E63" s="10"/>
       <c r="F63" s="10">
         <v>25</v>
+      </c>
+      <c r="G63" s="10">
+        <v>9</v>
       </c>
       <c r="O63" s="9"/>
     </row>
@@ -2577,8 +3821,8 @@
       <c r="B64" s="10">
         <v>3</v>
       </c>
-      <c r="C64" s="10">
-        <v>10</v>
+      <c r="C64" s="13" t="s">
+        <v>202</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>94</v>
@@ -2586,6 +3830,9 @@
       <c r="E64" s="10"/>
       <c r="F64" s="10">
         <v>25</v>
+      </c>
+      <c r="G64" s="10">
+        <v>10</v>
       </c>
       <c r="O64" s="9"/>
     </row>
@@ -2596,8 +3843,8 @@
       <c r="B65" s="10">
         <v>3</v>
       </c>
-      <c r="C65" s="10">
-        <v>11</v>
+      <c r="C65" s="13" t="s">
+        <v>203</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>95</v>
@@ -2605,6 +3852,9 @@
       <c r="E65" s="10"/>
       <c r="F65" s="10">
         <v>25</v>
+      </c>
+      <c r="G65" s="10">
+        <v>11</v>
       </c>
       <c r="O65" s="9"/>
     </row>
@@ -2615,8 +3865,8 @@
       <c r="B66" s="10">
         <v>3</v>
       </c>
-      <c r="C66" s="10">
-        <v>12</v>
+      <c r="C66" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>96</v>
@@ -2624,6 +3874,9 @@
       <c r="E66" s="10"/>
       <c r="F66" s="10">
         <v>25</v>
+      </c>
+      <c r="G66" s="10">
+        <v>12</v>
       </c>
       <c r="O66" s="9"/>
     </row>
@@ -2634,8 +3887,8 @@
       <c r="B67" s="10">
         <v>3</v>
       </c>
-      <c r="C67" s="10">
-        <v>13</v>
+      <c r="C67" s="13" t="s">
+        <v>205</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>97</v>
@@ -2643,6 +3896,9 @@
       <c r="E67" s="10"/>
       <c r="F67" s="10">
         <v>25</v>
+      </c>
+      <c r="G67" s="10">
+        <v>13</v>
       </c>
       <c r="O67" s="9"/>
     </row>
@@ -2653,8 +3909,8 @@
       <c r="B68" s="10">
         <v>3</v>
       </c>
-      <c r="C68" s="10">
-        <v>14</v>
+      <c r="C68" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>98</v>
@@ -2662,6 +3918,9 @@
       <c r="E68" s="10"/>
       <c r="F68" s="10">
         <v>25</v>
+      </c>
+      <c r="G68" s="10">
+        <v>14</v>
       </c>
       <c r="O68" s="9"/>
     </row>
@@ -2672,8 +3931,8 @@
       <c r="B69" s="10">
         <v>3</v>
       </c>
-      <c r="C69" s="10">
-        <v>15</v>
+      <c r="C69" s="13" t="s">
+        <v>207</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>99</v>
@@ -2681,6 +3940,9 @@
       <c r="E69" s="10"/>
       <c r="F69" s="10">
         <v>25</v>
+      </c>
+      <c r="G69" s="10">
+        <v>15</v>
       </c>
       <c r="O69" s="9"/>
     </row>
@@ -2691,8 +3953,8 @@
       <c r="B70" s="10">
         <v>3</v>
       </c>
-      <c r="C70" s="10">
-        <v>16</v>
+      <c r="C70" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>100</v>
@@ -2700,6 +3962,9 @@
       <c r="E70" s="10"/>
       <c r="F70" s="10">
         <v>25</v>
+      </c>
+      <c r="G70" s="10">
+        <v>16</v>
       </c>
       <c r="O70" s="9"/>
     </row>
@@ -2710,8 +3975,8 @@
       <c r="B71" s="10">
         <v>3</v>
       </c>
-      <c r="C71" s="10">
-        <v>17</v>
+      <c r="C71" s="13" t="s">
+        <v>209</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>101</v>
@@ -2719,6 +3984,9 @@
       <c r="E71" s="10"/>
       <c r="F71" s="10">
         <v>25</v>
+      </c>
+      <c r="G71" s="10">
+        <v>17</v>
       </c>
       <c r="O71" s="9"/>
     </row>
@@ -2729,8 +3997,8 @@
       <c r="B72" s="10">
         <v>3</v>
       </c>
-      <c r="C72" s="10">
-        <v>18</v>
+      <c r="C72" s="13" t="s">
+        <v>210</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>102</v>
@@ -2738,6 +4006,9 @@
       <c r="E72" s="10"/>
       <c r="F72" s="10">
         <v>25</v>
+      </c>
+      <c r="G72" s="10">
+        <v>18</v>
       </c>
       <c r="O72" s="9"/>
     </row>
@@ -2748,8 +4019,8 @@
       <c r="B73" s="10">
         <v>3</v>
       </c>
-      <c r="C73" s="10">
-        <v>19</v>
+      <c r="C73" s="13" t="s">
+        <v>211</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>103</v>
@@ -2757,6 +4028,9 @@
       <c r="E73" s="10"/>
       <c r="F73" s="10">
         <v>25</v>
+      </c>
+      <c r="G73" s="10">
+        <v>19</v>
       </c>
       <c r="O73" s="9"/>
     </row>
@@ -2767,8 +4041,8 @@
       <c r="B74" s="10">
         <v>3</v>
       </c>
-      <c r="C74" s="10">
-        <v>20</v>
+      <c r="C74" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>104</v>
@@ -2776,6 +4050,9 @@
       <c r="E74" s="10"/>
       <c r="F74" s="10">
         <v>25</v>
+      </c>
+      <c r="G74" s="10">
+        <v>20</v>
       </c>
       <c r="O74" s="9"/>
     </row>
@@ -2786,8 +4063,8 @@
       <c r="B75" s="10">
         <v>3</v>
       </c>
-      <c r="C75" s="10">
-        <v>21</v>
+      <c r="C75" s="13" t="s">
+        <v>213</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>105</v>
@@ -2795,6 +4072,9 @@
       <c r="E75" s="10"/>
       <c r="F75" s="10">
         <v>25</v>
+      </c>
+      <c r="G75" s="10">
+        <v>21</v>
       </c>
       <c r="O75" s="9"/>
     </row>
@@ -2805,8 +4085,8 @@
       <c r="B76" s="10">
         <v>3</v>
       </c>
-      <c r="C76" s="10">
-        <v>22</v>
+      <c r="C76" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>106</v>
@@ -2814,6 +4094,9 @@
       <c r="E76" s="10"/>
       <c r="F76" s="10">
         <v>25</v>
+      </c>
+      <c r="G76" s="10">
+        <v>22</v>
       </c>
       <c r="O76" s="9"/>
     </row>
@@ -2824,8 +4107,8 @@
       <c r="B77" s="10">
         <v>3</v>
       </c>
-      <c r="C77" s="10">
-        <v>23</v>
+      <c r="C77" s="13" t="s">
+        <v>215</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>107</v>
@@ -2833,6 +4116,9 @@
       <c r="E77" s="10"/>
       <c r="F77" s="10">
         <v>25</v>
+      </c>
+      <c r="G77" s="10">
+        <v>23</v>
       </c>
       <c r="O77" s="9"/>
     </row>
@@ -2843,8 +4129,8 @@
       <c r="B78" s="10">
         <v>3</v>
       </c>
-      <c r="C78" s="10">
-        <v>24</v>
+      <c r="C78" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>108</v>
@@ -2852,6 +4138,9 @@
       <c r="E78" s="10"/>
       <c r="F78" s="10">
         <v>25</v>
+      </c>
+      <c r="G78" s="10">
+        <v>24</v>
       </c>
       <c r="O78" s="9"/>
     </row>
@@ -2862,14 +4151,17 @@
       <c r="B79" s="10">
         <v>3</v>
       </c>
-      <c r="C79" s="10">
-        <v>25</v>
+      <c r="C79" s="13" t="s">
+        <v>217</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>109</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="10">
+        <v>25</v>
+      </c>
+      <c r="G79" s="10">
         <v>25</v>
       </c>
       <c r="O79" s="9"/>
@@ -2881,8 +4173,8 @@
       <c r="B80" s="10">
         <v>3</v>
       </c>
-      <c r="C80" s="10">
-        <v>26</v>
+      <c r="C80" s="13" t="s">
+        <v>218</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>110</v>
@@ -2890,6 +4182,9 @@
       <c r="E80" s="10"/>
       <c r="F80" s="10">
         <v>25</v>
+      </c>
+      <c r="G80" s="10">
+        <v>26</v>
       </c>
       <c r="O80" s="9"/>
     </row>
@@ -2900,8 +4195,8 @@
       <c r="B81" s="10">
         <v>4</v>
       </c>
-      <c r="C81" s="10">
-        <v>1</v>
+      <c r="C81" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>112</v>
@@ -2909,6 +4204,9 @@
       <c r="E81" s="10"/>
       <c r="F81" s="10">
         <v>24</v>
+      </c>
+      <c r="G81" s="10">
+        <v>1</v>
       </c>
       <c r="O81" s="9"/>
     </row>
@@ -2919,8 +4217,8 @@
       <c r="B82" s="10">
         <v>4</v>
       </c>
-      <c r="C82" s="10">
-        <v>2</v>
+      <c r="C82" s="13" t="s">
+        <v>194</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>113</v>
@@ -2928,6 +4226,9 @@
       <c r="E82" s="10"/>
       <c r="F82" s="10">
         <v>24</v>
+      </c>
+      <c r="G82" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -2937,8 +4238,8 @@
       <c r="B83" s="10">
         <v>4</v>
       </c>
-      <c r="C83" s="10">
-        <v>3</v>
+      <c r="C83" s="13" t="s">
+        <v>195</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>114</v>
@@ -2946,6 +4247,9 @@
       <c r="E83" s="10"/>
       <c r="F83" s="10">
         <v>24</v>
+      </c>
+      <c r="G83" s="10">
+        <v>3</v>
       </c>
       <c r="O83" s="9"/>
     </row>
@@ -2956,8 +4260,8 @@
       <c r="B84" s="10">
         <v>4</v>
       </c>
-      <c r="C84" s="10">
-        <v>4</v>
+      <c r="C84" s="13" t="s">
+        <v>196</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>115</v>
@@ -2965,6 +4269,9 @@
       <c r="E84" s="10"/>
       <c r="F84" s="10">
         <v>24</v>
+      </c>
+      <c r="G84" s="10">
+        <v>4</v>
       </c>
       <c r="O84" s="9"/>
     </row>
@@ -2975,8 +4282,8 @@
       <c r="B85" s="10">
         <v>4</v>
       </c>
-      <c r="C85" s="10">
-        <v>5</v>
+      <c r="C85" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>116</v>
@@ -2984,6 +4291,9 @@
       <c r="E85" s="10"/>
       <c r="F85" s="10">
         <v>24</v>
+      </c>
+      <c r="G85" s="10">
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -2993,8 +4303,8 @@
       <c r="B86" s="10">
         <v>4</v>
       </c>
-      <c r="C86" s="10">
-        <v>6</v>
+      <c r="C86" s="13" t="s">
+        <v>198</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>117</v>
@@ -3002,6 +4312,9 @@
       <c r="E86" s="10"/>
       <c r="F86" s="10">
         <v>24</v>
+      </c>
+      <c r="G86" s="10">
+        <v>6</v>
       </c>
       <c r="O86" s="9"/>
     </row>
@@ -3012,8 +4325,8 @@
       <c r="B87" s="10">
         <v>4</v>
       </c>
-      <c r="C87" s="10">
-        <v>7</v>
+      <c r="C87" s="13" t="s">
+        <v>199</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>118</v>
@@ -3021,6 +4334,9 @@
       <c r="E87" s="10"/>
       <c r="F87" s="10">
         <v>24</v>
+      </c>
+      <c r="G87" s="10">
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -3030,8 +4346,8 @@
       <c r="B88" s="10">
         <v>4</v>
       </c>
-      <c r="C88" s="10">
-        <v>8</v>
+      <c r="C88" s="13" t="s">
+        <v>200</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>119</v>
@@ -3039,6 +4355,9 @@
       <c r="E88" s="10"/>
       <c r="F88" s="10">
         <v>24</v>
+      </c>
+      <c r="G88" s="10">
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -3048,8 +4367,8 @@
       <c r="B89" s="10">
         <v>4</v>
       </c>
-      <c r="C89" s="10">
-        <v>9</v>
+      <c r="C89" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>120</v>
@@ -3057,6 +4376,9 @@
       <c r="E89" s="10"/>
       <c r="F89" s="10">
         <v>24</v>
+      </c>
+      <c r="G89" s="10">
+        <v>9</v>
       </c>
       <c r="O89" s="9"/>
     </row>
@@ -3067,8 +4389,8 @@
       <c r="B90" s="10">
         <v>4</v>
       </c>
-      <c r="C90" s="10">
-        <v>10</v>
+      <c r="C90" s="13" t="s">
+        <v>202</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>121</v>
@@ -3076,6 +4398,9 @@
       <c r="E90" s="10"/>
       <c r="F90" s="10">
         <v>24</v>
+      </c>
+      <c r="G90" s="10">
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -3085,8 +4410,8 @@
       <c r="B91" s="10">
         <v>4</v>
       </c>
-      <c r="C91" s="10">
-        <v>11</v>
+      <c r="C91" s="13" t="s">
+        <v>203</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>122</v>
@@ -3094,6 +4419,9 @@
       <c r="E91" s="10"/>
       <c r="F91" s="10">
         <v>24</v>
+      </c>
+      <c r="G91" s="10">
+        <v>11</v>
       </c>
       <c r="O91" s="9"/>
     </row>
@@ -3104,8 +4432,8 @@
       <c r="B92" s="10">
         <v>4</v>
       </c>
-      <c r="C92" s="10">
-        <v>12</v>
+      <c r="C92" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>123</v>
@@ -3113,6 +4441,9 @@
       <c r="E92" s="10"/>
       <c r="F92" s="10">
         <v>24</v>
+      </c>
+      <c r="G92" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -3122,8 +4453,8 @@
       <c r="B93" s="10">
         <v>4</v>
       </c>
-      <c r="C93" s="10">
-        <v>13</v>
+      <c r="C93" s="13" t="s">
+        <v>205</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>124</v>
@@ -3131,6 +4462,9 @@
       <c r="E93" s="10"/>
       <c r="F93" s="10">
         <v>24</v>
+      </c>
+      <c r="G93" s="10">
+        <v>13</v>
       </c>
       <c r="O93" s="9"/>
     </row>
@@ -3141,8 +4475,8 @@
       <c r="B94" s="10">
         <v>4</v>
       </c>
-      <c r="C94" s="10">
-        <v>14</v>
+      <c r="C94" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>125</v>
@@ -3150,6 +4484,9 @@
       <c r="E94" s="10"/>
       <c r="F94" s="10">
         <v>24</v>
+      </c>
+      <c r="G94" s="10">
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -3159,8 +4496,8 @@
       <c r="B95" s="10">
         <v>4</v>
       </c>
-      <c r="C95" s="10">
-        <v>15</v>
+      <c r="C95" s="13" t="s">
+        <v>207</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>126</v>
@@ -3168,6 +4505,9 @@
       <c r="E95" s="10"/>
       <c r="F95" s="10">
         <v>24</v>
+      </c>
+      <c r="G95" s="10">
+        <v>15</v>
       </c>
       <c r="O95" s="9"/>
     </row>
@@ -3178,8 +4518,8 @@
       <c r="B96" s="10">
         <v>4</v>
       </c>
-      <c r="C96" s="10">
-        <v>16</v>
+      <c r="C96" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>127</v>
@@ -3187,6 +4527,9 @@
       <c r="E96" s="10"/>
       <c r="F96" s="10">
         <v>24</v>
+      </c>
+      <c r="G96" s="10">
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -3196,8 +4539,8 @@
       <c r="B97" s="10">
         <v>4</v>
       </c>
-      <c r="C97" s="10">
-        <v>17</v>
+      <c r="C97" s="13" t="s">
+        <v>209</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>128</v>
@@ -3205,6 +4548,9 @@
       <c r="E97" s="10"/>
       <c r="F97" s="10">
         <v>24</v>
+      </c>
+      <c r="G97" s="10">
+        <v>17</v>
       </c>
       <c r="O97" s="9"/>
     </row>
@@ -3215,8 +4561,8 @@
       <c r="B98" s="10">
         <v>4</v>
       </c>
-      <c r="C98" s="10">
-        <v>18</v>
+      <c r="C98" s="13" t="s">
+        <v>210</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>129</v>
@@ -3224,6 +4570,9 @@
       <c r="E98" s="10"/>
       <c r="F98" s="10">
         <v>24</v>
+      </c>
+      <c r="G98" s="10">
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -3233,8 +4582,8 @@
       <c r="B99" s="10">
         <v>4</v>
       </c>
-      <c r="C99" s="10">
-        <v>19</v>
+      <c r="C99" s="13" t="s">
+        <v>211</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>130</v>
@@ -3242,6 +4591,9 @@
       <c r="E99" s="10"/>
       <c r="F99" s="10">
         <v>24</v>
+      </c>
+      <c r="G99" s="10">
+        <v>19</v>
       </c>
       <c r="O99" s="9"/>
     </row>
@@ -3252,8 +4604,8 @@
       <c r="B100" s="10">
         <v>4</v>
       </c>
-      <c r="C100" s="10">
-        <v>20</v>
+      <c r="C100" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D100" s="10" t="s">
         <v>131</v>
@@ -3261,6 +4613,9 @@
       <c r="E100" s="10"/>
       <c r="F100" s="10">
         <v>24</v>
+      </c>
+      <c r="G100" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -3270,8 +4625,8 @@
       <c r="B101" s="10">
         <v>4</v>
       </c>
-      <c r="C101" s="10">
-        <v>21</v>
+      <c r="C101" s="13" t="s">
+        <v>213</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>132</v>
@@ -3279,6 +4634,9 @@
       <c r="E101" s="10"/>
       <c r="F101" s="10">
         <v>24</v>
+      </c>
+      <c r="G101" s="10">
+        <v>21</v>
       </c>
       <c r="O101" s="9"/>
     </row>
@@ -3289,8 +4647,8 @@
       <c r="B102" s="10">
         <v>4</v>
       </c>
-      <c r="C102" s="10">
-        <v>22</v>
+      <c r="C102" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>133</v>
@@ -3298,6 +4656,9 @@
       <c r="E102" s="10"/>
       <c r="F102" s="10">
         <v>24</v>
+      </c>
+      <c r="G102" s="10">
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -3307,8 +4668,8 @@
       <c r="B103" s="10">
         <v>4</v>
       </c>
-      <c r="C103" s="10">
-        <v>23</v>
+      <c r="C103" s="13" t="s">
+        <v>215</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>134</v>
@@ -3316,6 +4677,9 @@
       <c r="E103" s="10"/>
       <c r="F103" s="10">
         <v>24</v>
+      </c>
+      <c r="G103" s="10">
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -3325,14 +4689,17 @@
       <c r="B104" s="10">
         <v>4</v>
       </c>
-      <c r="C104" s="10">
-        <v>24</v>
+      <c r="C104" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>135</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="10">
+        <v>24</v>
+      </c>
+      <c r="G104" s="10">
         <v>24</v>
       </c>
       <c r="O104" s="9"/>
@@ -3344,8 +4711,8 @@
       <c r="B105" s="10">
         <v>4</v>
       </c>
-      <c r="C105" s="10">
-        <v>25</v>
+      <c r="C105" s="13" t="s">
+        <v>217</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>136</v>
@@ -3353,6 +4720,9 @@
       <c r="E105" s="10"/>
       <c r="F105" s="10">
         <v>24</v>
+      </c>
+      <c r="G105" s="10">
+        <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -3362,8 +4732,8 @@
       <c r="B106" s="10">
         <v>4</v>
       </c>
-      <c r="C106" s="10">
-        <v>26</v>
+      <c r="C106" s="13" t="s">
+        <v>218</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>137</v>
@@ -3371,6 +4741,9 @@
       <c r="E106" s="10"/>
       <c r="F106" s="10">
         <v>24</v>
+      </c>
+      <c r="G106" s="10">
+        <v>26</v>
       </c>
       <c r="O106" s="9"/>
     </row>
@@ -3381,8 +4754,8 @@
       <c r="B107" s="10">
         <v>5</v>
       </c>
-      <c r="C107" s="10">
-        <v>1</v>
+      <c r="C107" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>139</v>
@@ -3390,6 +4763,9 @@
       <c r="E107" s="10"/>
       <c r="F107" s="10">
         <v>24</v>
+      </c>
+      <c r="G107" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -3399,8 +4775,8 @@
       <c r="B108" s="10">
         <v>5</v>
       </c>
-      <c r="C108" s="10">
-        <v>2</v>
+      <c r="C108" s="13" t="s">
+        <v>194</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>140</v>
@@ -3408,6 +4784,9 @@
       <c r="E108" s="10"/>
       <c r="F108" s="10">
         <v>24</v>
+      </c>
+      <c r="G108" s="10">
+        <v>2</v>
       </c>
       <c r="O108" s="9"/>
     </row>
@@ -3418,8 +4797,8 @@
       <c r="B109" s="10">
         <v>5</v>
       </c>
-      <c r="C109" s="10">
-        <v>3</v>
+      <c r="C109" s="13" t="s">
+        <v>195</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>141</v>
@@ -3427,6 +4806,9 @@
       <c r="E109" s="10"/>
       <c r="F109" s="10">
         <v>24</v>
+      </c>
+      <c r="G109" s="10">
+        <v>3</v>
       </c>
       <c r="O109" s="9"/>
     </row>
@@ -3437,8 +4819,8 @@
       <c r="B110" s="10">
         <v>5</v>
       </c>
-      <c r="C110" s="10">
-        <v>4</v>
+      <c r="C110" s="13" t="s">
+        <v>196</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>142</v>
@@ -3446,6 +4828,9 @@
       <c r="E110" s="10"/>
       <c r="F110" s="10">
         <v>24</v>
+      </c>
+      <c r="G110" s="10">
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -3455,8 +4840,8 @@
       <c r="B111" s="10">
         <v>5</v>
       </c>
-      <c r="C111" s="10">
-        <v>5</v>
+      <c r="C111" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>143</v>
@@ -3464,6 +4849,9 @@
       <c r="E111" s="10"/>
       <c r="F111" s="10">
         <v>24</v>
+      </c>
+      <c r="G111" s="10">
+        <v>5</v>
       </c>
       <c r="O111" s="9"/>
     </row>
@@ -3474,8 +4862,8 @@
       <c r="B112" s="10">
         <v>5</v>
       </c>
-      <c r="C112" s="10">
-        <v>6</v>
+      <c r="C112" s="13" t="s">
+        <v>198</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>144</v>
@@ -3483,6 +4871,9 @@
       <c r="E112" s="10"/>
       <c r="F112" s="10">
         <v>24</v>
+      </c>
+      <c r="G112" s="10">
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -3492,8 +4883,8 @@
       <c r="B113" s="10">
         <v>5</v>
       </c>
-      <c r="C113" s="10">
-        <v>7</v>
+      <c r="C113" s="13" t="s">
+        <v>199</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>145</v>
@@ -3501,6 +4892,9 @@
       <c r="E113" s="10"/>
       <c r="F113" s="10">
         <v>24</v>
+      </c>
+      <c r="G113" s="10">
+        <v>7</v>
       </c>
       <c r="O113" s="9"/>
     </row>
@@ -3511,8 +4905,8 @@
       <c r="B114" s="10">
         <v>5</v>
       </c>
-      <c r="C114" s="10">
-        <v>8</v>
+      <c r="C114" s="13" t="s">
+        <v>200</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>146</v>
@@ -3520,6 +4914,9 @@
       <c r="E114" s="10"/>
       <c r="F114" s="10">
         <v>24</v>
+      </c>
+      <c r="G114" s="10">
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -3529,8 +4926,8 @@
       <c r="B115" s="10">
         <v>5</v>
       </c>
-      <c r="C115" s="10">
-        <v>9</v>
+      <c r="C115" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>147</v>
@@ -3538,6 +4935,9 @@
       <c r="E115" s="10"/>
       <c r="F115" s="10">
         <v>24</v>
+      </c>
+      <c r="G115" s="10">
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -3547,8 +4947,8 @@
       <c r="B116" s="10">
         <v>5</v>
       </c>
-      <c r="C116" s="10">
-        <v>10</v>
+      <c r="C116" s="13" t="s">
+        <v>202</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>148</v>
@@ -3556,6 +4956,9 @@
       <c r="E116" s="10"/>
       <c r="F116" s="10">
         <v>24</v>
+      </c>
+      <c r="G116" s="10">
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -3565,8 +4968,8 @@
       <c r="B117" s="10">
         <v>5</v>
       </c>
-      <c r="C117" s="10">
-        <v>11</v>
+      <c r="C117" s="13" t="s">
+        <v>203</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>149</v>
@@ -3574,6 +4977,9 @@
       <c r="E117" s="10"/>
       <c r="F117" s="10">
         <v>24</v>
+      </c>
+      <c r="G117" s="10">
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -3583,8 +4989,8 @@
       <c r="B118" s="10">
         <v>5</v>
       </c>
-      <c r="C118" s="10">
-        <v>12</v>
+      <c r="C118" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>150</v>
@@ -3592,6 +4998,9 @@
       <c r="E118" s="10"/>
       <c r="F118" s="10">
         <v>24</v>
+      </c>
+      <c r="G118" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -3601,8 +5010,8 @@
       <c r="B119" s="10">
         <v>5</v>
       </c>
-      <c r="C119" s="10">
-        <v>13</v>
+      <c r="C119" s="13" t="s">
+        <v>205</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>151</v>
@@ -3610,6 +5019,9 @@
       <c r="E119" s="10"/>
       <c r="F119" s="10">
         <v>24</v>
+      </c>
+      <c r="G119" s="10">
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -3619,8 +5031,8 @@
       <c r="B120" s="10">
         <v>5</v>
       </c>
-      <c r="C120" s="10">
-        <v>14</v>
+      <c r="C120" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>152</v>
@@ -3628,6 +5040,9 @@
       <c r="E120" s="10"/>
       <c r="F120" s="10">
         <v>24</v>
+      </c>
+      <c r="G120" s="10">
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -3637,8 +5052,8 @@
       <c r="B121" s="10">
         <v>5</v>
       </c>
-      <c r="C121" s="10">
-        <v>15</v>
+      <c r="C121" s="13" t="s">
+        <v>207</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>153</v>
@@ -3646,6 +5061,9 @@
       <c r="E121" s="10"/>
       <c r="F121" s="10">
         <v>24</v>
+      </c>
+      <c r="G121" s="10">
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -3655,8 +5073,8 @@
       <c r="B122" s="10">
         <v>5</v>
       </c>
-      <c r="C122" s="10">
-        <v>16</v>
+      <c r="C122" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>154</v>
@@ -3664,6 +5082,9 @@
       <c r="E122" s="10"/>
       <c r="F122" s="10">
         <v>24</v>
+      </c>
+      <c r="G122" s="10">
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -3673,8 +5094,8 @@
       <c r="B123" s="10">
         <v>5</v>
       </c>
-      <c r="C123" s="10">
-        <v>17</v>
+      <c r="C123" s="13" t="s">
+        <v>209</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>155</v>
@@ -3682,6 +5103,9 @@
       <c r="E123" s="10"/>
       <c r="F123" s="10">
         <v>24</v>
+      </c>
+      <c r="G123" s="10">
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -3691,8 +5115,8 @@
       <c r="B124" s="10">
         <v>5</v>
       </c>
-      <c r="C124" s="10">
-        <v>18</v>
+      <c r="C124" s="13" t="s">
+        <v>210</v>
       </c>
       <c r="D124" s="10" t="s">
         <v>156</v>
@@ -3700,6 +5124,9 @@
       <c r="E124" s="10"/>
       <c r="F124" s="10">
         <v>24</v>
+      </c>
+      <c r="G124" s="10">
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -3709,8 +5136,8 @@
       <c r="B125" s="10">
         <v>5</v>
       </c>
-      <c r="C125" s="10">
-        <v>19</v>
+      <c r="C125" s="13" t="s">
+        <v>211</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>157</v>
@@ -3718,6 +5145,9 @@
       <c r="E125" s="10"/>
       <c r="F125" s="10">
         <v>24</v>
+      </c>
+      <c r="G125" s="10">
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -3727,8 +5157,8 @@
       <c r="B126" s="10">
         <v>5</v>
       </c>
-      <c r="C126" s="10">
-        <v>20</v>
+      <c r="C126" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>158</v>
@@ -3736,6 +5166,9 @@
       <c r="E126" s="10"/>
       <c r="F126" s="10">
         <v>24</v>
+      </c>
+      <c r="G126" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -3745,8 +5178,8 @@
       <c r="B127" s="10">
         <v>5</v>
       </c>
-      <c r="C127" s="10">
-        <v>21</v>
+      <c r="C127" s="13" t="s">
+        <v>213</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>159</v>
@@ -3754,6 +5187,9 @@
       <c r="E127" s="10"/>
       <c r="F127" s="10">
         <v>24</v>
+      </c>
+      <c r="G127" s="10">
+        <v>21</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="15.5" thickTop="1" thickBot="1">
@@ -3763,8 +5199,8 @@
       <c r="B128" s="10">
         <v>5</v>
       </c>
-      <c r="C128" s="10">
-        <v>22</v>
+      <c r="C128" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="D128" s="10" t="s">
         <v>160</v>
@@ -3773,16 +5209,19 @@
       <c r="F128" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G128" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A129" s="10">
         <v>127</v>
       </c>
       <c r="B129" s="10">
         <v>5</v>
       </c>
-      <c r="C129" s="10">
-        <v>23</v>
+      <c r="C129" s="13" t="s">
+        <v>215</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>161</v>
@@ -3791,16 +5230,19 @@
       <c r="F129" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G129" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A130" s="10">
         <v>128</v>
       </c>
       <c r="B130" s="10">
         <v>5</v>
       </c>
-      <c r="C130" s="10">
-        <v>24</v>
+      <c r="C130" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="D130" s="10" t="s">
         <v>162</v>
@@ -3809,16 +5251,19 @@
       <c r="F130" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G130" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A131" s="10">
         <v>129</v>
       </c>
       <c r="B131" s="10">
         <v>5</v>
       </c>
-      <c r="C131" s="10">
-        <v>25</v>
+      <c r="C131" s="13" t="s">
+        <v>217</v>
       </c>
       <c r="D131" s="10" t="s">
         <v>163</v>
@@ -3827,16 +5272,19 @@
       <c r="F131" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G131" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A132" s="10">
         <v>130</v>
       </c>
       <c r="B132" s="10">
         <v>6</v>
       </c>
-      <c r="C132" s="10">
-        <v>1</v>
+      <c r="C132" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="D132" s="10" t="s">
         <v>165</v>
@@ -3845,16 +5293,19 @@
       <c r="F132" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G132" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A133" s="10">
         <v>131</v>
       </c>
       <c r="B133" s="10">
         <v>6</v>
       </c>
-      <c r="C133" s="10">
-        <v>2</v>
+      <c r="C133" s="13" t="s">
+        <v>194</v>
       </c>
       <c r="D133" s="10" t="s">
         <v>166</v>
@@ -3863,16 +5314,19 @@
       <c r="F133" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G133" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A134" s="10">
         <v>132</v>
       </c>
       <c r="B134" s="10">
         <v>6</v>
       </c>
-      <c r="C134" s="10">
-        <v>3</v>
+      <c r="C134" s="13" t="s">
+        <v>195</v>
       </c>
       <c r="D134" s="10" t="s">
         <v>167</v>
@@ -3881,16 +5335,19 @@
       <c r="F134" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G134" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A135" s="10">
         <v>133</v>
       </c>
       <c r="B135" s="10">
         <v>6</v>
       </c>
-      <c r="C135" s="10">
-        <v>4</v>
+      <c r="C135" s="13" t="s">
+        <v>196</v>
       </c>
       <c r="D135" s="10" t="s">
         <v>168</v>
@@ -3899,16 +5356,19 @@
       <c r="F135" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G135" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A136" s="10">
         <v>134</v>
       </c>
       <c r="B136" s="10">
         <v>6</v>
       </c>
-      <c r="C136" s="10">
-        <v>5</v>
+      <c r="C136" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="D136" s="10" t="s">
         <v>169</v>
@@ -3917,16 +5377,19 @@
       <c r="F136" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G136" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A137" s="10">
         <v>135</v>
       </c>
       <c r="B137" s="10">
         <v>6</v>
       </c>
-      <c r="C137" s="10">
-        <v>6</v>
+      <c r="C137" s="13" t="s">
+        <v>198</v>
       </c>
       <c r="D137" s="10" t="s">
         <v>170</v>
@@ -3935,16 +5398,19 @@
       <c r="F137" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G137" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A138" s="10">
         <v>136</v>
       </c>
       <c r="B138" s="10">
         <v>6</v>
       </c>
-      <c r="C138" s="10">
-        <v>7</v>
+      <c r="C138" s="13" t="s">
+        <v>199</v>
       </c>
       <c r="D138" s="10" t="s">
         <v>171</v>
@@ -3953,16 +5419,19 @@
       <c r="F138" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G138" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A139" s="10">
         <v>137</v>
       </c>
       <c r="B139" s="10">
         <v>6</v>
       </c>
-      <c r="C139" s="10">
-        <v>8</v>
+      <c r="C139" s="13" t="s">
+        <v>200</v>
       </c>
       <c r="D139" s="10" t="s">
         <v>172</v>
@@ -3971,16 +5440,19 @@
       <c r="F139" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G139" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A140" s="10">
         <v>138</v>
       </c>
       <c r="B140" s="10">
         <v>6</v>
       </c>
-      <c r="C140" s="10">
-        <v>9</v>
+      <c r="C140" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="D140" s="10" t="s">
         <v>173</v>
@@ -3989,16 +5461,19 @@
       <c r="F140" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G140" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A141" s="10">
         <v>139</v>
       </c>
       <c r="B141" s="10">
         <v>6</v>
       </c>
-      <c r="C141" s="10">
-        <v>10</v>
+      <c r="C141" s="13" t="s">
+        <v>202</v>
       </c>
       <c r="D141" s="10" t="s">
         <v>174</v>
@@ -4007,16 +5482,19 @@
       <c r="F141" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G141" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A142" s="10">
         <v>140</v>
       </c>
       <c r="B142" s="10">
         <v>6</v>
       </c>
-      <c r="C142" s="10">
-        <v>11</v>
+      <c r="C142" s="13" t="s">
+        <v>203</v>
       </c>
       <c r="D142" s="10" t="s">
         <v>175</v>
@@ -4025,16 +5503,19 @@
       <c r="F142" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G142" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A143" s="10">
         <v>141</v>
       </c>
       <c r="B143" s="10">
         <v>6</v>
       </c>
-      <c r="C143" s="10">
-        <v>12</v>
+      <c r="C143" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="D143" s="10" t="s">
         <v>176</v>
@@ -4043,16 +5524,19 @@
       <c r="F143" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G143" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A144" s="10">
         <v>142</v>
       </c>
       <c r="B144" s="10">
         <v>6</v>
       </c>
-      <c r="C144" s="10">
-        <v>13</v>
+      <c r="C144" s="13" t="s">
+        <v>205</v>
       </c>
       <c r="D144" s="10" t="s">
         <v>177</v>
@@ -4061,16 +5545,19 @@
       <c r="F144" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G144" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A145" s="10">
         <v>143</v>
       </c>
       <c r="B145" s="10">
         <v>6</v>
       </c>
-      <c r="C145" s="10">
-        <v>14</v>
+      <c r="C145" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="D145" s="10" t="s">
         <v>178</v>
@@ -4079,16 +5566,19 @@
       <c r="F145" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G145" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A146" s="10">
         <v>144</v>
       </c>
       <c r="B146" s="10">
         <v>6</v>
       </c>
-      <c r="C146" s="10">
-        <v>15</v>
+      <c r="C146" s="13" t="s">
+        <v>207</v>
       </c>
       <c r="D146" s="10" t="s">
         <v>179</v>
@@ -4097,16 +5587,19 @@
       <c r="F146" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G146" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A147" s="10">
         <v>145</v>
       </c>
       <c r="B147" s="10">
         <v>6</v>
       </c>
-      <c r="C147" s="10">
-        <v>16</v>
+      <c r="C147" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="D147" s="10" t="s">
         <v>180</v>
@@ -4115,16 +5608,19 @@
       <c r="F147" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G147" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A148" s="10">
         <v>146</v>
       </c>
       <c r="B148" s="10">
         <v>6</v>
       </c>
-      <c r="C148" s="10">
-        <v>17</v>
+      <c r="C148" s="13" t="s">
+        <v>209</v>
       </c>
       <c r="D148" s="10" t="s">
         <v>181</v>
@@ -4133,16 +5629,19 @@
       <c r="F148" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G148" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A149" s="10">
         <v>147</v>
       </c>
       <c r="B149" s="10">
         <v>6</v>
       </c>
-      <c r="C149" s="10">
-        <v>18</v>
+      <c r="C149" s="13" t="s">
+        <v>210</v>
       </c>
       <c r="D149" s="10" t="s">
         <v>182</v>
@@ -4151,16 +5650,19 @@
       <c r="F149" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G149" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A150" s="10">
         <v>148</v>
       </c>
       <c r="B150" s="10">
         <v>6</v>
       </c>
-      <c r="C150" s="10">
-        <v>19</v>
+      <c r="C150" s="13" t="s">
+        <v>211</v>
       </c>
       <c r="D150" s="10" t="s">
         <v>183</v>
@@ -4169,16 +5671,19 @@
       <c r="F150" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G150" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A151" s="10">
         <v>149</v>
       </c>
       <c r="B151" s="10">
         <v>6</v>
       </c>
-      <c r="C151" s="10">
-        <v>20</v>
+      <c r="C151" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D151" s="10" t="s">
         <v>184</v>
@@ -4187,16 +5692,19 @@
       <c r="F151" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G151" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A152" s="10">
         <v>150</v>
       </c>
       <c r="B152" s="10">
         <v>6</v>
       </c>
-      <c r="C152" s="10">
-        <v>21</v>
+      <c r="C152" s="13" t="s">
+        <v>213</v>
       </c>
       <c r="D152" s="10" t="s">
         <v>185</v>
@@ -4205,16 +5713,19 @@
       <c r="F152" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G152" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A153" s="10">
         <v>151</v>
       </c>
       <c r="B153" s="10">
         <v>6</v>
       </c>
-      <c r="C153" s="10">
-        <v>22</v>
+      <c r="C153" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="D153" s="10" t="s">
         <v>186</v>
@@ -4223,16 +5734,19 @@
       <c r="F153" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G153" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A154" s="10">
         <v>152</v>
       </c>
       <c r="B154" s="10">
         <v>6</v>
       </c>
-      <c r="C154" s="10">
-        <v>23</v>
+      <c r="C154" s="13" t="s">
+        <v>215</v>
       </c>
       <c r="D154" s="10" t="s">
         <v>187</v>
@@ -4241,16 +5755,19 @@
       <c r="F154" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G154" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A155" s="10">
         <v>153</v>
       </c>
       <c r="B155" s="10">
         <v>6</v>
       </c>
-      <c r="C155" s="10">
-        <v>24</v>
+      <c r="C155" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="D155" s="10" t="s">
         <v>188</v>
@@ -4259,16 +5776,19 @@
       <c r="F155" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G155" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A156" s="10">
         <v>154</v>
       </c>
       <c r="B156" s="10">
         <v>6</v>
       </c>
-      <c r="C156" s="10">
-        <v>25</v>
+      <c r="C156" s="13" t="s">
+        <v>217</v>
       </c>
       <c r="D156" s="10" t="s">
         <v>189</v>
@@ -4277,16 +5797,19 @@
       <c r="F156" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G156" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A157" s="10">
         <v>155</v>
       </c>
       <c r="B157" s="10">
         <v>7</v>
       </c>
-      <c r="C157" s="10">
-        <v>1</v>
+      <c r="C157" s="14" t="s">
+        <v>219</v>
       </c>
       <c r="D157" s="10"/>
       <c r="E157" s="10">
@@ -4295,16 +5818,19 @@
       <c r="F157" s="10">
         <v>99</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G157" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A158" s="10">
         <v>156</v>
       </c>
       <c r="B158" s="10">
         <v>8</v>
       </c>
-      <c r="C158" s="10">
-        <v>1</v>
+      <c r="C158" s="14" t="s">
+        <v>220</v>
       </c>
       <c r="D158" s="10"/>
       <c r="E158" s="10">
@@ -4313,16 +5839,19 @@
       <c r="F158" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" ht="15.5" thickTop="1" thickBot="1">
+      <c r="G158" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
       <c r="A159" s="10">
         <v>157</v>
       </c>
       <c r="B159" s="10">
         <v>9</v>
       </c>
-      <c r="C159" s="10">
-        <v>1</v>
+      <c r="C159" s="14" t="s">
+        <v>220</v>
       </c>
       <c r="D159" s="10"/>
       <c r="E159" s="10">
@@ -4331,11 +5860,15 @@
       <c r="F159" s="10">
         <v>69</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" ht="13.5" thickTop="1"/>
+      <c r="G159" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="13.5" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
